--- a/DOCs/Контрольный пример.xlsx
+++ b/DOCs/Контрольный пример.xlsx
@@ -9,13 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
+    <sheet name="УГПР" sheetId="1" r:id="rId1"/>
+    <sheet name="План факт стоимости" sheetId="3" r:id="rId2"/>
+    <sheet name="ДанныеПроекта" sheetId="2" r:id="rId3"/>
+    <sheet name="План потребности материал" sheetId="4" r:id="rId4"/>
+    <sheet name="Расценка бюджета" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'План потребности материал'!$A$10:$T$23</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="201">
   <si>
     <t>Картинка</t>
   </si>
@@ -503,6 +508,132 @@
   </si>
   <si>
     <t>Факт объем</t>
+  </si>
+  <si>
+    <t>Период</t>
+  </si>
+  <si>
+    <t>Регистратор</t>
+  </si>
+  <si>
+    <t>Номер строки</t>
+  </si>
+  <si>
+    <t>Проект</t>
+  </si>
+  <si>
+    <t>Дата плана</t>
+  </si>
+  <si>
+    <t>Ключ строки</t>
+  </si>
+  <si>
+    <t>Ресурс</t>
+  </si>
+  <si>
+    <t>Номенклатура</t>
+  </si>
+  <si>
+    <t>Характеристика</t>
+  </si>
+  <si>
+    <t>Конструктив</t>
+  </si>
+  <si>
+    <t>Не используется</t>
+  </si>
+  <si>
+    <t>Номенклатура количество</t>
+  </si>
+  <si>
+    <t>Количество номенклатуры обеспечить: Закупка</t>
+  </si>
+  <si>
+    <t>Количество номенклатуры обеспечить: Производство</t>
+  </si>
+  <si>
+    <t>УДАЛИТЬПроект</t>
+  </si>
+  <si>
+    <t>Единица измерения</t>
+  </si>
+  <si>
+    <t>Склад</t>
+  </si>
+  <si>
+    <t>29.11.2018 1:25:44</t>
+  </si>
+  <si>
+    <t>План потребностей в материалах 000000015 от 29.11.2018 1:25:44</t>
+  </si>
+  <si>
+    <t>Автотестирование загрузки 27 улицы</t>
+  </si>
+  <si>
+    <t>01.01.2018</t>
+  </si>
+  <si>
+    <t>a96309ec-0c54-406a-ab30-8cbac84683df</t>
+  </si>
+  <si>
+    <t>Щебень из плотных горных пород для строительных работ М1000, фракция 40-70 мм СТ РК 1284-2004</t>
+  </si>
+  <si>
+    <t>Щебень из плотных горных пород для строительных работ М1200, фракция 40-70 мм СТ РК 1284-2004</t>
+  </si>
+  <si>
+    <t>01.02.2018</t>
+  </si>
+  <si>
+    <t>63b7c8ad-a9bf-4840-9057-3222fa9cd41f</t>
+  </si>
+  <si>
+    <t>01.03.2018</t>
+  </si>
+  <si>
+    <t>f4757652-5638-4205-8c6f-f0793e03dfba</t>
+  </si>
+  <si>
+    <t>Песок природный ГОСТ 8736-93</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>abac064a-2ec6-4400-aa0f-11778ccc0ca5</t>
+  </si>
+  <si>
+    <t>Бензин АИ-92</t>
+  </si>
+  <si>
+    <t>Бензин А-92</t>
+  </si>
+  <si>
+    <t>л/дм3</t>
+  </si>
+  <si>
+    <t>Брусья необрезные хвойных пород длиной от 3 м до 6,5 м, любой ширины, толщиной от 100 мм до 125 мм, 3 сорта ГОСТ 8486-86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Брусья обрезные хвойных пород длиной от 4 м до 6,5 м, шириной от 75 мм до 150 мм, толщиной от 100 мм до 125 мм, 2 сорта </t>
+  </si>
+  <si>
+    <t>18.01.2018</t>
+  </si>
+  <si>
+    <t>21.02.2018</t>
+  </si>
+  <si>
+    <t>02.03.2018</t>
+  </si>
+  <si>
+    <t>05.03.2018</t>
+  </si>
+  <si>
+    <t>06.03.2018</t>
+  </si>
+  <si>
+    <t>07.03.2018</t>
   </si>
 </sst>
 </file>
@@ -727,12 +858,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -759,50 +892,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -836,9 +927,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -876,9 +964,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -887,11 +972,80 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный_Лист1" xfId="1"/>
     <cellStyle name="Обычный_Лист2" xfId="2"/>
+    <cellStyle name="Обычный_Лист4" xfId="3"/>
+    <cellStyle name="Обычный_План потребности материал" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1172,7 +1326,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,8 +3265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3125,17 +3279,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
@@ -3161,7 +3315,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="36">
         <f>I4/H4*J4</f>
         <v>74578.393977041123</v>
       </c>
@@ -3185,7 +3339,7 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="36">
         <f>I5/H5*J5</f>
         <v>30272.915383534855</v>
       </c>
@@ -3209,7 +3363,7 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="36">
         <f>I6/H6*J6</f>
         <v>80925.705838876573</v>
       </c>
@@ -3227,7 +3381,7 @@
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="36">
         <f>I7/H7*J7</f>
         <v>36040.39076202453</v>
       </c>
@@ -3245,7 +3399,7 @@
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="36">
         <f>I8/H8*J8</f>
         <v>13335.248655224419</v>
       </c>
@@ -3260,14 +3414,14 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="52"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D10">
         <f>SUM(D4:D6)</f>
         <v>190415</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="36">
         <f>SUM(F4:F8)</f>
         <v>235152.6546167015</v>
       </c>
@@ -3283,17 +3437,19 @@
   <dimension ref="A1:AU71"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:B15"/>
+      <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
@@ -3608,217 +3764,217 @@
       <c r="C7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11">
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="53">
         <v>2018</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="53">
         <v>2018</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12">
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="41">
         <v>2018</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12">
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41">
         <v>2018</v>
       </c>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12">
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41">
         <v>2018</v>
       </c>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12">
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="41">
         <v>2018</v>
       </c>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="19" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19" t="s">
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19" t="s">
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19" t="s">
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="47"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
     </row>
     <row r="9" spans="1:47" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22" t="s">
+      <c r="F9" s="40"/>
+      <c r="G9" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22" t="s">
+      <c r="K9" s="40"/>
+      <c r="L9" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22" t="s">
+      <c r="M9" s="40"/>
+      <c r="N9" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22" t="s">
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22" t="s">
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22" t="s">
+      <c r="U9" s="40"/>
+      <c r="V9" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22" t="s">
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22" t="s">
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22" t="s">
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22" t="s">
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22" t="s">
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22" t="s">
+      <c r="AK9" s="40"/>
+      <c r="AL9" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22" t="s">
+      <c r="AM9" s="40"/>
+      <c r="AN9" s="40"/>
+      <c r="AO9" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="AP9" s="22"/>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22" t="s">
+      <c r="AP9" s="40"/>
+      <c r="AQ9" s="40"/>
+      <c r="AR9" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22" t="s">
+      <c r="AS9" s="40"/>
+      <c r="AT9" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AU9" s="22"/>
+      <c r="AU9" s="40"/>
     </row>
     <row r="10" spans="1:47" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="13"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="9" t="s">
         <v>137</v>
       </c>
@@ -3952,4482 +4108,4472 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13">
         <v>794192.03</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13">
         <v>794192.03</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27">
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="13">
         <v>100547.45</v>
       </c>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="28">
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="14">
         <v>100547.45</v>
       </c>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="27">
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="13">
         <v>77287.28</v>
       </c>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="28">
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="14">
         <v>77287.28</v>
       </c>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="27">
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="13">
         <v>429459.28</v>
       </c>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="28">
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="14">
         <v>429459.28</v>
       </c>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="26"/>
-      <c r="AN11" s="27">
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="13">
         <v>186898.02</v>
       </c>
-      <c r="AO11" s="26"/>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="26"/>
-      <c r="AR11" s="26"/>
-      <c r="AS11" s="28">
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="14">
         <v>186898.02</v>
       </c>
-      <c r="AT11" s="26"/>
-      <c r="AU11" s="28">
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="14">
         <v>794192.03</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="25" t="s">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13">
         <v>794192.03</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13">
         <v>794192.03</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="13">
         <v>100547.45</v>
       </c>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="28">
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="14">
         <v>100547.45</v>
       </c>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="27">
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="13">
         <v>77287.28</v>
       </c>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="28">
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="14">
         <v>77287.28</v>
       </c>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="27">
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="13">
         <v>429459.28</v>
       </c>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="26"/>
-      <c r="AK12" s="28">
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="14">
         <v>429459.28</v>
       </c>
-      <c r="AL12" s="26"/>
-      <c r="AM12" s="26"/>
-      <c r="AN12" s="27">
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="13">
         <v>186898.02</v>
       </c>
-      <c r="AO12" s="26"/>
-      <c r="AP12" s="26"/>
-      <c r="AQ12" s="26"/>
-      <c r="AR12" s="26"/>
-      <c r="AS12" s="28">
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="14">
         <v>186898.02</v>
       </c>
-      <c r="AT12" s="26"/>
-      <c r="AU12" s="28">
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="14">
         <v>794192.03</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="25" t="s">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13">
         <v>88486.3</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13">
         <v>88486.3</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27">
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="13">
         <v>88486.3</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="28">
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="14">
         <v>88486.3</v>
       </c>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="26"/>
-      <c r="AL13" s="26"/>
-      <c r="AM13" s="26"/>
-      <c r="AN13" s="26"/>
-      <c r="AO13" s="26"/>
-      <c r="AP13" s="26"/>
-      <c r="AQ13" s="26"/>
-      <c r="AR13" s="26"/>
-      <c r="AS13" s="26"/>
-      <c r="AT13" s="26"/>
-      <c r="AU13" s="28">
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="14">
         <v>88486.3</v>
       </c>
     </row>
     <row r="14" spans="1:47" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
+      <c r="A14" s="17">
         <v>1</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20">
         <v>24295.37</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20">
         <v>24295.37</v>
       </c>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="34">
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="20">
         <v>24295.37</v>
       </c>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="35">
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="21">
         <v>24295.37</v>
       </c>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="33"/>
-      <c r="AS14" s="33"/>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="35">
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="21">
         <v>24295.37</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="23">
         <v>17.212</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="23">
         <v>17.212</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="24">
         <v>21053.03</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="38">
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="23">
         <v>17.212</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="23">
         <v>17.212</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="24">
         <v>21053.03</v>
       </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="38">
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="23">
         <v>17.212</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="24">
         <v>1223.1600000000001</v>
       </c>
-      <c r="P15" s="39">
+      <c r="P15" s="24">
         <v>21053.03</v>
       </c>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="42">
+      <c r="Q15" s="25"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="27">
         <v>17.212</v>
       </c>
-      <c r="U15" s="43">
+      <c r="U15" s="28">
         <v>21053.03</v>
       </c>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="40"/>
-      <c r="AO15" s="40"/>
-      <c r="AP15" s="40"/>
-      <c r="AQ15" s="40"/>
-      <c r="AR15" s="40"/>
-      <c r="AS15" s="40"/>
-      <c r="AT15" s="42">
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="27">
         <v>17.212</v>
       </c>
-      <c r="AU15" s="43">
+      <c r="AU15" s="28">
         <v>21053.03</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="23">
         <v>3.7669999999999999</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="23">
         <v>3.7669999999999999</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="24">
         <v>3242.34</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="38">
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="23">
         <v>3.7669999999999999</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="23">
         <v>3.7669999999999999</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="24">
         <v>3242.34</v>
       </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="38">
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="23">
         <v>3.7669999999999999</v>
       </c>
-      <c r="O16" s="44">
+      <c r="O16" s="29">
         <v>860.72</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="24">
         <v>3242.34</v>
       </c>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="42">
+      <c r="Q16" s="25"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="27">
         <v>3.7669999999999999</v>
       </c>
-      <c r="U16" s="43">
+      <c r="U16" s="28">
         <v>3242.34</v>
       </c>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="40"/>
-      <c r="AN16" s="40"/>
-      <c r="AO16" s="40"/>
-      <c r="AP16" s="40"/>
-      <c r="AQ16" s="40"/>
-      <c r="AR16" s="40"/>
-      <c r="AS16" s="40"/>
-      <c r="AT16" s="42">
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="27">
         <v>3.7669999999999999</v>
       </c>
-      <c r="AU16" s="43">
+      <c r="AU16" s="28">
         <v>3242.34</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="247.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+    <row r="17" spans="1:47" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
         <v>2</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20">
         <v>18495.7</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34">
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20">
         <v>18495.7</v>
       </c>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34">
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="20">
         <v>18495.7</v>
       </c>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="35">
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="21">
         <v>18495.7</v>
       </c>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
-      <c r="AM17" s="33"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="33"/>
-      <c r="AQ17" s="33"/>
-      <c r="AR17" s="33"/>
-      <c r="AS17" s="33"/>
-      <c r="AT17" s="33"/>
-      <c r="AU17" s="35">
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="21">
         <v>18495.7</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="23">
         <v>19.997</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="23">
         <v>19.997</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="24">
         <v>18495.7</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="38">
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="23">
         <v>19.997</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="23">
         <v>19.997</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="24">
         <v>18495.7</v>
       </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="38">
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="23">
         <v>19.997</v>
       </c>
-      <c r="O18" s="44">
+      <c r="O18" s="29">
         <v>924.92</v>
       </c>
-      <c r="P18" s="39">
+      <c r="P18" s="24">
         <v>18495.7</v>
       </c>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="42">
+      <c r="Q18" s="25"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="27">
         <v>19.997</v>
       </c>
-      <c r="U18" s="43">
+      <c r="U18" s="28">
         <v>18495.7</v>
       </c>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="40"/>
-      <c r="AG18" s="40"/>
-      <c r="AH18" s="40"/>
-      <c r="AI18" s="40"/>
-      <c r="AJ18" s="40"/>
-      <c r="AK18" s="40"/>
-      <c r="AL18" s="40"/>
-      <c r="AM18" s="40"/>
-      <c r="AN18" s="40"/>
-      <c r="AO18" s="40"/>
-      <c r="AP18" s="40"/>
-      <c r="AQ18" s="40"/>
-      <c r="AR18" s="40"/>
-      <c r="AS18" s="40"/>
-      <c r="AT18" s="42">
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="25"/>
+      <c r="AK18" s="25"/>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="25"/>
+      <c r="AS18" s="25"/>
+      <c r="AT18" s="27">
         <v>19.997</v>
       </c>
-      <c r="AU18" s="43">
+      <c r="AU18" s="28">
         <v>18495.7</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="225" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
+    <row r="19" spans="1:47" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>3</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20">
         <v>45695.23</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34">
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20">
         <v>45695.23</v>
       </c>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34">
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="20">
         <v>45695.23</v>
       </c>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="35">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="21">
         <v>45695.23</v>
       </c>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="33"/>
-      <c r="AM19" s="33"/>
-      <c r="AN19" s="33"/>
-      <c r="AO19" s="33"/>
-      <c r="AP19" s="33"/>
-      <c r="AQ19" s="33"/>
-      <c r="AR19" s="33"/>
-      <c r="AS19" s="33"/>
-      <c r="AT19" s="33"/>
-      <c r="AU19" s="35">
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="21">
         <v>45695.23</v>
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="23">
         <v>49.405000000000001</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="23">
         <v>49.405000000000001</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="24">
         <v>45695.23</v>
       </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="38">
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="23">
         <v>49.405000000000001</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="23">
         <v>49.405000000000001</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="24">
         <v>45695.23</v>
       </c>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="38">
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="23">
         <v>49.405000000000001</v>
       </c>
-      <c r="O20" s="44">
+      <c r="O20" s="29">
         <v>924.91</v>
       </c>
-      <c r="P20" s="39">
+      <c r="P20" s="24">
         <v>45695.23</v>
       </c>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="42">
+      <c r="Q20" s="25"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="27">
         <v>49.405000000000001</v>
       </c>
-      <c r="U20" s="43">
+      <c r="U20" s="28">
         <v>45695.23</v>
       </c>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="40"/>
-      <c r="AM20" s="40"/>
-      <c r="AN20" s="40"/>
-      <c r="AO20" s="40"/>
-      <c r="AP20" s="40"/>
-      <c r="AQ20" s="40"/>
-      <c r="AR20" s="40"/>
-      <c r="AS20" s="40"/>
-      <c r="AT20" s="42">
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="25"/>
+      <c r="AS20" s="25"/>
+      <c r="AT20" s="27">
         <v>49.405000000000001</v>
       </c>
-      <c r="AU20" s="43">
+      <c r="AU20" s="28">
         <v>45695.23</v>
       </c>
     </row>
-    <row r="21" spans="1:47" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="25" t="s">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13">
         <v>13088.13</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="27">
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13">
         <v>13088.13</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="27">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="13">
         <v>12061.15</v>
       </c>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="28">
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="14">
         <v>12061.15</v>
       </c>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="27">
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="13">
         <v>1026.98</v>
       </c>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="28">
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="14">
         <v>1026.98</v>
       </c>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="26"/>
-      <c r="AL21" s="26"/>
-      <c r="AM21" s="26"/>
-      <c r="AN21" s="26"/>
-      <c r="AO21" s="26"/>
-      <c r="AP21" s="26"/>
-      <c r="AQ21" s="26"/>
-      <c r="AR21" s="26"/>
-      <c r="AS21" s="26"/>
-      <c r="AT21" s="26"/>
-      <c r="AU21" s="28">
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="14">
         <v>13088.13</v>
       </c>
     </row>
-    <row r="22" spans="1:47" ht="180" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
+    <row r="22" spans="1:47" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
         <v>4</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20">
         <v>12061.15</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34">
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20">
         <v>12061.15</v>
       </c>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="34">
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="20">
         <v>12061.15</v>
       </c>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="35">
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="21">
         <v>12061.15</v>
       </c>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="33"/>
-      <c r="AM22" s="33"/>
-      <c r="AN22" s="33"/>
-      <c r="AO22" s="33"/>
-      <c r="AP22" s="33"/>
-      <c r="AQ22" s="33"/>
-      <c r="AR22" s="33"/>
-      <c r="AS22" s="33"/>
-      <c r="AT22" s="33"/>
-      <c r="AU22" s="35">
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="21">
         <v>12061.15</v>
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="23">
         <v>7.7350000000000003</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="23">
         <v>7.7350000000000003</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="24">
         <v>9461.6299999999992</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="38">
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="23">
         <v>7.7350000000000003</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="23">
         <v>7.7350000000000003</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K23" s="24">
         <v>9461.6299999999992</v>
       </c>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="38">
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="23">
         <v>7.7350000000000003</v>
       </c>
-      <c r="O23" s="39">
+      <c r="O23" s="24">
         <v>1223.22</v>
       </c>
-      <c r="P23" s="39">
+      <c r="P23" s="24">
         <v>9461.6299999999992</v>
       </c>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="42">
+      <c r="Q23" s="25"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="27">
         <v>7.7350000000000003</v>
       </c>
-      <c r="U23" s="43">
+      <c r="U23" s="28">
         <v>9461.6299999999992</v>
       </c>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="40"/>
-      <c r="AG23" s="40"/>
-      <c r="AH23" s="40"/>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="40"/>
-      <c r="AK23" s="40"/>
-      <c r="AL23" s="40"/>
-      <c r="AM23" s="40"/>
-      <c r="AN23" s="40"/>
-      <c r="AO23" s="40"/>
-      <c r="AP23" s="40"/>
-      <c r="AQ23" s="40"/>
-      <c r="AR23" s="40"/>
-      <c r="AS23" s="40"/>
-      <c r="AT23" s="42">
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="25"/>
+      <c r="AR23" s="25"/>
+      <c r="AS23" s="25"/>
+      <c r="AT23" s="27">
         <v>7.7350000000000003</v>
       </c>
-      <c r="AU23" s="43">
+      <c r="AU23" s="28">
         <v>9461.6299999999992</v>
       </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="23">
         <v>2.6930000000000001</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="23">
         <v>2.6930000000000001</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="24">
         <v>2599.52</v>
       </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="38">
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="23">
         <v>2.6930000000000001</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J24" s="23">
         <v>2.6930000000000001</v>
       </c>
-      <c r="K24" s="39">
+      <c r="K24" s="24">
         <v>2599.52</v>
       </c>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="38">
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="23">
         <v>2.6930000000000001</v>
       </c>
-      <c r="O24" s="44">
+      <c r="O24" s="29">
         <v>965.29</v>
       </c>
-      <c r="P24" s="39">
+      <c r="P24" s="24">
         <v>2599.52</v>
       </c>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="42">
+      <c r="Q24" s="25"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="27">
         <v>2.6930000000000001</v>
       </c>
-      <c r="U24" s="43">
+      <c r="U24" s="28">
         <v>2599.52</v>
       </c>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="40"/>
-      <c r="AG24" s="40"/>
-      <c r="AH24" s="40"/>
-      <c r="AI24" s="40"/>
-      <c r="AJ24" s="40"/>
-      <c r="AK24" s="40"/>
-      <c r="AL24" s="40"/>
-      <c r="AM24" s="40"/>
-      <c r="AN24" s="40"/>
-      <c r="AO24" s="40"/>
-      <c r="AP24" s="40"/>
-      <c r="AQ24" s="40"/>
-      <c r="AR24" s="40"/>
-      <c r="AS24" s="40"/>
-      <c r="AT24" s="42">
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="25"/>
+      <c r="AS24" s="25"/>
+      <c r="AT24" s="27">
         <v>2.6930000000000001</v>
       </c>
-      <c r="AU24" s="43">
+      <c r="AU24" s="28">
         <v>2599.52</v>
       </c>
     </row>
-    <row r="25" spans="1:47" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <v>6</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20">
         <v>1026.98</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34">
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20">
         <v>1026.98</v>
       </c>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="34">
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="20">
         <v>1026.98</v>
       </c>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="35">
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="21">
         <v>1026.98</v>
       </c>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="33"/>
-      <c r="AK25" s="33"/>
-      <c r="AL25" s="33"/>
-      <c r="AM25" s="33"/>
-      <c r="AN25" s="33"/>
-      <c r="AO25" s="33"/>
-      <c r="AP25" s="33"/>
-      <c r="AQ25" s="33"/>
-      <c r="AR25" s="33"/>
-      <c r="AS25" s="33"/>
-      <c r="AT25" s="33"/>
-      <c r="AU25" s="35">
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="21">
         <v>1026.98</v>
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37" t="s">
+      <c r="B26" s="38"/>
+      <c r="C26" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="23">
         <v>0.46899999999999997</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="23">
         <v>0.46899999999999997</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="29">
         <v>664.04</v>
       </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="38">
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="23">
         <v>0.46899999999999997</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="23">
         <v>0.46899999999999997</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="29">
         <v>664.04</v>
       </c>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="38">
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="23">
         <v>0.46899999999999997</v>
       </c>
-      <c r="W26" s="39">
+      <c r="W26" s="24">
         <v>1415.86</v>
       </c>
-      <c r="X26" s="44">
+      <c r="X26" s="29">
         <v>664.04</v>
       </c>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="42">
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="27">
         <v>0.46899999999999997</v>
       </c>
-      <c r="AC26" s="45">
+      <c r="AC26" s="30">
         <v>664.04</v>
       </c>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="40"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="40"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="40"/>
-      <c r="AO26" s="40"/>
-      <c r="AP26" s="40"/>
-      <c r="AQ26" s="40"/>
-      <c r="AR26" s="40"/>
-      <c r="AS26" s="40"/>
-      <c r="AT26" s="42">
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="25"/>
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="25"/>
+      <c r="AN26" s="25"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="25"/>
+      <c r="AS26" s="25"/>
+      <c r="AT26" s="27">
         <v>0.46899999999999997</v>
       </c>
-      <c r="AU26" s="45">
+      <c r="AU26" s="30">
         <v>664.04</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="23">
         <v>0.42199999999999999</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="23">
         <v>0.42199999999999999</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="29">
         <v>362.94</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="38">
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="23">
         <v>0.42199999999999999</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="23">
         <v>0.42199999999999999</v>
       </c>
-      <c r="K27" s="44">
+      <c r="K27" s="29">
         <v>362.94</v>
       </c>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="38">
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="23">
         <v>0.42199999999999999</v>
       </c>
-      <c r="W27" s="44">
+      <c r="W27" s="29">
         <v>860.05</v>
       </c>
-      <c r="X27" s="44">
+      <c r="X27" s="29">
         <v>362.94</v>
       </c>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="42">
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="27">
         <v>0.42199999999999999</v>
       </c>
-      <c r="AC27" s="45">
+      <c r="AC27" s="30">
         <v>362.94</v>
       </c>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="40"/>
-      <c r="AG27" s="40"/>
-      <c r="AH27" s="40"/>
-      <c r="AI27" s="40"/>
-      <c r="AJ27" s="40"/>
-      <c r="AK27" s="40"/>
-      <c r="AL27" s="40"/>
-      <c r="AM27" s="40"/>
-      <c r="AN27" s="40"/>
-      <c r="AO27" s="40"/>
-      <c r="AP27" s="40"/>
-      <c r="AQ27" s="40"/>
-      <c r="AR27" s="40"/>
-      <c r="AS27" s="40"/>
-      <c r="AT27" s="42">
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="25"/>
+      <c r="AK27" s="25"/>
+      <c r="AL27" s="25"/>
+      <c r="AM27" s="25"/>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="25"/>
+      <c r="AP27" s="25"/>
+      <c r="AQ27" s="25"/>
+      <c r="AR27" s="25"/>
+      <c r="AS27" s="25"/>
+      <c r="AT27" s="27">
         <v>0.42199999999999999</v>
       </c>
-      <c r="AU27" s="45">
+      <c r="AU27" s="30">
         <v>362.94</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13">
         <v>83165.95</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="27">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="13">
         <v>83165.95</v>
       </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="27">
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="13">
         <v>76260.3</v>
       </c>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="28">
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="14">
         <v>76260.3</v>
       </c>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="27">
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="13">
         <v>6905.65</v>
       </c>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="26"/>
-      <c r="AJ28" s="26"/>
-      <c r="AK28" s="28">
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="14">
         <v>6905.65</v>
       </c>
-      <c r="AL28" s="26"/>
-      <c r="AM28" s="26"/>
-      <c r="AN28" s="26"/>
-      <c r="AO28" s="26"/>
-      <c r="AP28" s="26"/>
-      <c r="AQ28" s="26"/>
-      <c r="AR28" s="26"/>
-      <c r="AS28" s="26"/>
-      <c r="AT28" s="26"/>
-      <c r="AU28" s="28">
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="14">
         <v>83165.95</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
+    <row r="29" spans="1:47" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
         <v>10</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20">
         <v>39359.86</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20">
         <v>39359.86</v>
       </c>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="34">
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="20">
         <v>39359.86</v>
       </c>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="35">
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="21">
         <v>39359.86</v>
       </c>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="33"/>
-      <c r="AG29" s="33"/>
-      <c r="AH29" s="33"/>
-      <c r="AI29" s="33"/>
-      <c r="AJ29" s="33"/>
-      <c r="AK29" s="33"/>
-      <c r="AL29" s="33"/>
-      <c r="AM29" s="33"/>
-      <c r="AN29" s="33"/>
-      <c r="AO29" s="33"/>
-      <c r="AP29" s="33"/>
-      <c r="AQ29" s="33"/>
-      <c r="AR29" s="33"/>
-      <c r="AS29" s="33"/>
-      <c r="AT29" s="33"/>
-      <c r="AU29" s="35">
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19"/>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="21">
         <v>39359.86</v>
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37" t="s">
+      <c r="B30" s="38"/>
+      <c r="C30" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="23">
         <v>46.81</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="23">
         <v>46.81</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="24">
         <v>39359.86</v>
       </c>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="38">
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="23">
         <v>46.81</v>
       </c>
-      <c r="J30" s="38">
+      <c r="J30" s="23">
         <v>46.81</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="24">
         <v>39359.86</v>
       </c>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="38">
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="23">
         <v>46.81</v>
       </c>
-      <c r="W30" s="44">
+      <c r="W30" s="29">
         <v>840.84</v>
       </c>
-      <c r="X30" s="39">
+      <c r="X30" s="24">
         <v>39359.86</v>
       </c>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="40"/>
-      <c r="AB30" s="42">
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="27">
         <v>46.81</v>
       </c>
-      <c r="AC30" s="43">
+      <c r="AC30" s="28">
         <v>39359.86</v>
       </c>
-      <c r="AD30" s="40"/>
-      <c r="AE30" s="40"/>
-      <c r="AF30" s="40"/>
-      <c r="AG30" s="40"/>
-      <c r="AH30" s="40"/>
-      <c r="AI30" s="40"/>
-      <c r="AJ30" s="40"/>
-      <c r="AK30" s="40"/>
-      <c r="AL30" s="40"/>
-      <c r="AM30" s="40"/>
-      <c r="AN30" s="40"/>
-      <c r="AO30" s="40"/>
-      <c r="AP30" s="40"/>
-      <c r="AQ30" s="40"/>
-      <c r="AR30" s="40"/>
-      <c r="AS30" s="40"/>
-      <c r="AT30" s="42">
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="25"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="25"/>
+      <c r="AN30" s="25"/>
+      <c r="AO30" s="25"/>
+      <c r="AP30" s="25"/>
+      <c r="AQ30" s="25"/>
+      <c r="AR30" s="25"/>
+      <c r="AS30" s="25"/>
+      <c r="AT30" s="27">
         <v>46.81</v>
       </c>
-      <c r="AU30" s="43">
+      <c r="AU30" s="28">
         <v>39359.86</v>
       </c>
     </row>
-    <row r="31" spans="1:47" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="31">
+    <row r="31" spans="1:47" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
         <v>11</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="46">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="31">
         <v>564.53</v>
       </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="46">
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="31">
         <v>564.53</v>
       </c>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="46">
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="31">
         <v>564.53</v>
       </c>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="47">
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="32">
         <v>564.53</v>
       </c>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="33"/>
-      <c r="AF31" s="33"/>
-      <c r="AG31" s="33"/>
-      <c r="AH31" s="33"/>
-      <c r="AI31" s="33"/>
-      <c r="AJ31" s="33"/>
-      <c r="AK31" s="33"/>
-      <c r="AL31" s="33"/>
-      <c r="AM31" s="33"/>
-      <c r="AN31" s="33"/>
-      <c r="AO31" s="33"/>
-      <c r="AP31" s="33"/>
-      <c r="AQ31" s="33"/>
-      <c r="AR31" s="33"/>
-      <c r="AS31" s="33"/>
-      <c r="AT31" s="33"/>
-      <c r="AU31" s="47">
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
+      <c r="AQ31" s="19"/>
+      <c r="AR31" s="19"/>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="19"/>
+      <c r="AU31" s="32">
         <v>564.53</v>
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37" t="s">
+      <c r="B32" s="38"/>
+      <c r="C32" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="23">
         <v>0.39600000000000002</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="23">
         <v>0.39600000000000002</v>
       </c>
-      <c r="F32" s="44">
+      <c r="F32" s="29">
         <v>564.53</v>
       </c>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="38">
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="23">
         <v>0.39600000000000002</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J32" s="23">
         <v>0.39600000000000002</v>
       </c>
-      <c r="K32" s="44">
+      <c r="K32" s="29">
         <v>564.53</v>
       </c>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="38">
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="23">
         <v>0.39600000000000002</v>
       </c>
-      <c r="W32" s="39">
+      <c r="W32" s="24">
         <v>1425.58</v>
       </c>
-      <c r="X32" s="44">
+      <c r="X32" s="29">
         <v>564.53</v>
       </c>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="42">
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="27">
         <v>0.39600000000000002</v>
       </c>
-      <c r="AC32" s="45">
+      <c r="AC32" s="30">
         <v>564.53</v>
       </c>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="40"/>
-      <c r="AF32" s="40"/>
-      <c r="AG32" s="40"/>
-      <c r="AH32" s="40"/>
-      <c r="AI32" s="40"/>
-      <c r="AJ32" s="40"/>
-      <c r="AK32" s="40"/>
-      <c r="AL32" s="40"/>
-      <c r="AM32" s="40"/>
-      <c r="AN32" s="40"/>
-      <c r="AO32" s="40"/>
-      <c r="AP32" s="40"/>
-      <c r="AQ32" s="40"/>
-      <c r="AR32" s="40"/>
-      <c r="AS32" s="40"/>
-      <c r="AT32" s="42">
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="25"/>
+      <c r="AJ32" s="25"/>
+      <c r="AK32" s="25"/>
+      <c r="AL32" s="25"/>
+      <c r="AM32" s="25"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="25"/>
+      <c r="AP32" s="25"/>
+      <c r="AQ32" s="25"/>
+      <c r="AR32" s="25"/>
+      <c r="AS32" s="25"/>
+      <c r="AT32" s="27">
         <v>0.39600000000000002</v>
       </c>
-      <c r="AU32" s="45">
+      <c r="AU32" s="30">
         <v>564.53</v>
       </c>
     </row>
-    <row r="33" spans="1:47" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="31">
+    <row r="33" spans="1:47" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
         <v>12</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20">
         <v>7376.3</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="34">
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="20">
         <v>7376.3</v>
       </c>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="34">
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="20">
         <v>7376.3</v>
       </c>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="35">
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="21">
         <v>7376.3</v>
       </c>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="33"/>
-      <c r="AH33" s="33"/>
-      <c r="AI33" s="33"/>
-      <c r="AJ33" s="33"/>
-      <c r="AK33" s="33"/>
-      <c r="AL33" s="33"/>
-      <c r="AM33" s="33"/>
-      <c r="AN33" s="33"/>
-      <c r="AO33" s="33"/>
-      <c r="AP33" s="33"/>
-      <c r="AQ33" s="33"/>
-      <c r="AR33" s="33"/>
-      <c r="AS33" s="33"/>
-      <c r="AT33" s="33"/>
-      <c r="AU33" s="35">
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="19"/>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="19"/>
+      <c r="AM33" s="19"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="19"/>
+      <c r="AQ33" s="19"/>
+      <c r="AR33" s="19"/>
+      <c r="AS33" s="19"/>
+      <c r="AT33" s="19"/>
+      <c r="AU33" s="21">
         <v>7376.3</v>
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="23">
         <v>1.7050000000000001</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="23">
         <v>1.7050000000000001</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="24">
         <v>1811.18</v>
       </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="38">
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="23">
         <v>1.7050000000000001</v>
       </c>
-      <c r="J34" s="38">
+      <c r="J34" s="23">
         <v>1.7050000000000001</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34" s="24">
         <v>1811.18</v>
       </c>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="38">
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="23">
         <v>1.7050000000000001</v>
       </c>
-      <c r="W34" s="39">
+      <c r="W34" s="24">
         <v>1062.28</v>
       </c>
-      <c r="X34" s="39">
+      <c r="X34" s="24">
         <v>1811.18</v>
       </c>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="40"/>
-      <c r="AB34" s="42">
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="27">
         <v>1.7050000000000001</v>
       </c>
-      <c r="AC34" s="43">
+      <c r="AC34" s="28">
         <v>1811.18</v>
       </c>
-      <c r="AD34" s="40"/>
-      <c r="AE34" s="40"/>
-      <c r="AF34" s="40"/>
-      <c r="AG34" s="40"/>
-      <c r="AH34" s="40"/>
-      <c r="AI34" s="40"/>
-      <c r="AJ34" s="40"/>
-      <c r="AK34" s="40"/>
-      <c r="AL34" s="40"/>
-      <c r="AM34" s="40"/>
-      <c r="AN34" s="40"/>
-      <c r="AO34" s="40"/>
-      <c r="AP34" s="40"/>
-      <c r="AQ34" s="40"/>
-      <c r="AR34" s="40"/>
-      <c r="AS34" s="40"/>
-      <c r="AT34" s="42">
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="25"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="25"/>
+      <c r="AJ34" s="25"/>
+      <c r="AK34" s="25"/>
+      <c r="AL34" s="25"/>
+      <c r="AM34" s="25"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="25"/>
+      <c r="AP34" s="25"/>
+      <c r="AQ34" s="25"/>
+      <c r="AR34" s="25"/>
+      <c r="AS34" s="25"/>
+      <c r="AT34" s="27">
         <v>1.7050000000000001</v>
       </c>
-      <c r="AU34" s="43">
+      <c r="AU34" s="28">
         <v>1811.18</v>
       </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37" t="s">
+      <c r="B35" s="38"/>
+      <c r="C35" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="23">
         <v>7.016</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="23">
         <v>7.016</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="24">
         <v>5565.12</v>
       </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="38">
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="23">
         <v>7.016</v>
       </c>
-      <c r="J35" s="38">
+      <c r="J35" s="23">
         <v>7.016</v>
       </c>
-      <c r="K35" s="39">
+      <c r="K35" s="24">
         <v>5565.12</v>
       </c>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="38">
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="23">
         <v>7.016</v>
       </c>
-      <c r="W35" s="44">
+      <c r="W35" s="29">
         <v>793.2</v>
       </c>
-      <c r="X35" s="39">
+      <c r="X35" s="24">
         <v>5565.12</v>
       </c>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="42">
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="27">
         <v>7.016</v>
       </c>
-      <c r="AC35" s="43">
+      <c r="AC35" s="28">
         <v>5565.12</v>
       </c>
-      <c r="AD35" s="40"/>
-      <c r="AE35" s="40"/>
-      <c r="AF35" s="40"/>
-      <c r="AG35" s="40"/>
-      <c r="AH35" s="40"/>
-      <c r="AI35" s="40"/>
-      <c r="AJ35" s="40"/>
-      <c r="AK35" s="40"/>
-      <c r="AL35" s="40"/>
-      <c r="AM35" s="40"/>
-      <c r="AN35" s="40"/>
-      <c r="AO35" s="40"/>
-      <c r="AP35" s="40"/>
-      <c r="AQ35" s="40"/>
-      <c r="AR35" s="40"/>
-      <c r="AS35" s="40"/>
-      <c r="AT35" s="42">
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="25"/>
+      <c r="AJ35" s="25"/>
+      <c r="AK35" s="25"/>
+      <c r="AL35" s="25"/>
+      <c r="AM35" s="25"/>
+      <c r="AN35" s="25"/>
+      <c r="AO35" s="25"/>
+      <c r="AP35" s="25"/>
+      <c r="AQ35" s="25"/>
+      <c r="AR35" s="25"/>
+      <c r="AS35" s="25"/>
+      <c r="AT35" s="27">
         <v>7.016</v>
       </c>
-      <c r="AU35" s="43">
+      <c r="AU35" s="28">
         <v>5565.12</v>
       </c>
     </row>
-    <row r="36" spans="1:47" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="31">
+    <row r="36" spans="1:47" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
         <v>13</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20">
         <v>20716.95</v>
       </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="34">
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="20">
         <v>20716.95</v>
       </c>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="34">
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="20">
         <v>13811.3</v>
       </c>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="35">
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="21">
         <v>13811.3</v>
       </c>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="34">
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="20">
         <v>6905.65</v>
       </c>
-      <c r="AG36" s="33"/>
-      <c r="AH36" s="33"/>
-      <c r="AI36" s="33"/>
-      <c r="AJ36" s="33"/>
-      <c r="AK36" s="35">
+      <c r="AG36" s="19"/>
+      <c r="AH36" s="19"/>
+      <c r="AI36" s="19"/>
+      <c r="AJ36" s="19"/>
+      <c r="AK36" s="21">
         <v>6905.65</v>
       </c>
-      <c r="AL36" s="33"/>
-      <c r="AM36" s="33"/>
-      <c r="AN36" s="33"/>
-      <c r="AO36" s="33"/>
-      <c r="AP36" s="33"/>
-      <c r="AQ36" s="33"/>
-      <c r="AR36" s="33"/>
-      <c r="AS36" s="33"/>
-      <c r="AT36" s="33"/>
-      <c r="AU36" s="35">
+      <c r="AL36" s="19"/>
+      <c r="AM36" s="19"/>
+      <c r="AN36" s="19"/>
+      <c r="AO36" s="19"/>
+      <c r="AP36" s="19"/>
+      <c r="AQ36" s="19"/>
+      <c r="AR36" s="19"/>
+      <c r="AS36" s="19"/>
+      <c r="AT36" s="19"/>
+      <c r="AU36" s="21">
         <v>20716.95</v>
       </c>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="23">
         <v>24.638000000000002</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="23">
         <v>24.638000000000002</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="24">
         <v>20716.95</v>
       </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="38">
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="23">
         <v>24.638000000000002</v>
       </c>
-      <c r="J37" s="38">
+      <c r="J37" s="23">
         <v>24.638000000000002</v>
       </c>
-      <c r="K37" s="39">
+      <c r="K37" s="24">
         <v>20716.95</v>
       </c>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="38">
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="23">
         <v>16.425332999999998</v>
       </c>
-      <c r="W37" s="44">
+      <c r="W37" s="29">
         <v>840.85</v>
       </c>
-      <c r="X37" s="39">
+      <c r="X37" s="24">
         <v>13811.3</v>
       </c>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="40"/>
-      <c r="AB37" s="42">
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="27">
         <v>16.4253</v>
       </c>
-      <c r="AC37" s="43">
+      <c r="AC37" s="28">
         <v>13811.3</v>
       </c>
-      <c r="AD37" s="38">
+      <c r="AD37" s="23">
         <v>8.2126669999999997</v>
       </c>
-      <c r="AE37" s="44">
+      <c r="AE37" s="29">
         <v>840.85</v>
       </c>
-      <c r="AF37" s="39">
+      <c r="AF37" s="24">
         <v>6905.65</v>
       </c>
-      <c r="AG37" s="40"/>
-      <c r="AH37" s="41"/>
-      <c r="AI37" s="40"/>
-      <c r="AJ37" s="42">
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="25"/>
+      <c r="AJ37" s="27">
         <v>8.2126999999999999</v>
       </c>
-      <c r="AK37" s="43">
+      <c r="AK37" s="28">
         <v>6905.65</v>
       </c>
-      <c r="AL37" s="40"/>
-      <c r="AM37" s="40"/>
-      <c r="AN37" s="40"/>
-      <c r="AO37" s="40"/>
-      <c r="AP37" s="40"/>
-      <c r="AQ37" s="40"/>
-      <c r="AR37" s="40"/>
-      <c r="AS37" s="40"/>
-      <c r="AT37" s="42">
+      <c r="AL37" s="25"/>
+      <c r="AM37" s="25"/>
+      <c r="AN37" s="25"/>
+      <c r="AO37" s="25"/>
+      <c r="AP37" s="25"/>
+      <c r="AQ37" s="25"/>
+      <c r="AR37" s="25"/>
+      <c r="AS37" s="25"/>
+      <c r="AT37" s="27">
         <v>24.638000000000002</v>
       </c>
-      <c r="AU37" s="43">
+      <c r="AU37" s="28">
         <v>20716.95</v>
       </c>
     </row>
-    <row r="38" spans="1:47" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="31">
+    <row r="38" spans="1:47" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
         <v>7</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="46">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="31">
         <v>976.54</v>
       </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="46">
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="31">
         <v>976.54</v>
       </c>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="46">
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="31">
         <v>976.54</v>
       </c>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="47">
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="32">
         <v>976.54</v>
       </c>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="33"/>
-      <c r="AG38" s="33"/>
-      <c r="AH38" s="33"/>
-      <c r="AI38" s="33"/>
-      <c r="AJ38" s="33"/>
-      <c r="AK38" s="33"/>
-      <c r="AL38" s="33"/>
-      <c r="AM38" s="33"/>
-      <c r="AN38" s="33"/>
-      <c r="AO38" s="33"/>
-      <c r="AP38" s="33"/>
-      <c r="AQ38" s="33"/>
-      <c r="AR38" s="33"/>
-      <c r="AS38" s="33"/>
-      <c r="AT38" s="33"/>
-      <c r="AU38" s="47">
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="19"/>
+      <c r="AL38" s="19"/>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="19"/>
+      <c r="AP38" s="19"/>
+      <c r="AQ38" s="19"/>
+      <c r="AR38" s="19"/>
+      <c r="AS38" s="19"/>
+      <c r="AT38" s="19"/>
+      <c r="AU38" s="32">
         <v>976.54</v>
       </c>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37" t="s">
+      <c r="B39" s="38"/>
+      <c r="C39" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="23">
         <v>0.68500000000000005</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="23">
         <v>0.68500000000000005</v>
       </c>
-      <c r="F39" s="44">
+      <c r="F39" s="29">
         <v>976.54</v>
       </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="38">
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="23">
         <v>0.68500000000000005</v>
       </c>
-      <c r="J39" s="38">
+      <c r="J39" s="23">
         <v>0.68500000000000005</v>
       </c>
-      <c r="K39" s="44">
+      <c r="K39" s="29">
         <v>976.54</v>
       </c>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="38">
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="23">
         <v>0.68500000000000005</v>
       </c>
-      <c r="W39" s="39">
+      <c r="W39" s="24">
         <v>1425.61</v>
       </c>
-      <c r="X39" s="44">
+      <c r="X39" s="29">
         <v>976.54</v>
       </c>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="40"/>
-      <c r="AB39" s="42">
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="27">
         <v>0.68500000000000005</v>
       </c>
-      <c r="AC39" s="45">
+      <c r="AC39" s="30">
         <v>976.54</v>
       </c>
-      <c r="AD39" s="40"/>
-      <c r="AE39" s="40"/>
-      <c r="AF39" s="40"/>
-      <c r="AG39" s="40"/>
-      <c r="AH39" s="40"/>
-      <c r="AI39" s="40"/>
-      <c r="AJ39" s="40"/>
-      <c r="AK39" s="40"/>
-      <c r="AL39" s="40"/>
-      <c r="AM39" s="40"/>
-      <c r="AN39" s="40"/>
-      <c r="AO39" s="40"/>
-      <c r="AP39" s="40"/>
-      <c r="AQ39" s="40"/>
-      <c r="AR39" s="40"/>
-      <c r="AS39" s="40"/>
-      <c r="AT39" s="42">
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
+      <c r="AI39" s="25"/>
+      <c r="AJ39" s="25"/>
+      <c r="AK39" s="25"/>
+      <c r="AL39" s="25"/>
+      <c r="AM39" s="25"/>
+      <c r="AN39" s="25"/>
+      <c r="AO39" s="25"/>
+      <c r="AP39" s="25"/>
+      <c r="AQ39" s="25"/>
+      <c r="AR39" s="25"/>
+      <c r="AS39" s="25"/>
+      <c r="AT39" s="27">
         <v>0.68500000000000005</v>
       </c>
-      <c r="AU39" s="45">
+      <c r="AU39" s="30">
         <v>976.54</v>
       </c>
     </row>
-    <row r="40" spans="1:47" ht="225" x14ac:dyDescent="0.25">
-      <c r="A40" s="31">
+    <row r="40" spans="1:47" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
         <v>8</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34">
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20">
         <v>1411.99</v>
       </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="34">
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="20">
         <v>1411.99</v>
       </c>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="34">
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="20">
         <v>1411.99</v>
       </c>
-      <c r="Y40" s="33"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="33"/>
-      <c r="AC40" s="35">
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="21">
         <v>1411.99</v>
       </c>
-      <c r="AD40" s="33"/>
-      <c r="AE40" s="33"/>
-      <c r="AF40" s="33"/>
-      <c r="AG40" s="33"/>
-      <c r="AH40" s="33"/>
-      <c r="AI40" s="33"/>
-      <c r="AJ40" s="33"/>
-      <c r="AK40" s="33"/>
-      <c r="AL40" s="33"/>
-      <c r="AM40" s="33"/>
-      <c r="AN40" s="33"/>
-      <c r="AO40" s="33"/>
-      <c r="AP40" s="33"/>
-      <c r="AQ40" s="33"/>
-      <c r="AR40" s="33"/>
-      <c r="AS40" s="33"/>
-      <c r="AT40" s="33"/>
-      <c r="AU40" s="35">
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="19"/>
+      <c r="AJ40" s="19"/>
+      <c r="AK40" s="19"/>
+      <c r="AL40" s="19"/>
+      <c r="AM40" s="19"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="19"/>
+      <c r="AP40" s="19"/>
+      <c r="AQ40" s="19"/>
+      <c r="AR40" s="19"/>
+      <c r="AS40" s="19"/>
+      <c r="AT40" s="19"/>
+      <c r="AU40" s="21">
         <v>1411.99</v>
       </c>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37" t="s">
+      <c r="B41" s="38"/>
+      <c r="C41" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="23">
         <v>0.99099999999999999</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="23">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F41" s="39">
+      <c r="F41" s="24">
         <v>1411.99</v>
       </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="38">
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="23">
         <v>0.99099999999999999</v>
       </c>
-      <c r="J41" s="38">
+      <c r="J41" s="23">
         <v>0.99099999999999999</v>
       </c>
-      <c r="K41" s="39">
+      <c r="K41" s="24">
         <v>1411.99</v>
       </c>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="38">
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="23">
         <v>0.99099999999999999</v>
       </c>
-      <c r="W41" s="39">
+      <c r="W41" s="24">
         <v>1424.81</v>
       </c>
-      <c r="X41" s="39">
+      <c r="X41" s="24">
         <v>1411.99</v>
       </c>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="40"/>
-      <c r="AB41" s="42">
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="27">
         <v>0.99099999999999999</v>
       </c>
-      <c r="AC41" s="43">
+      <c r="AC41" s="28">
         <v>1411.99</v>
       </c>
-      <c r="AD41" s="40"/>
-      <c r="AE41" s="40"/>
-      <c r="AF41" s="40"/>
-      <c r="AG41" s="40"/>
-      <c r="AH41" s="40"/>
-      <c r="AI41" s="40"/>
-      <c r="AJ41" s="40"/>
-      <c r="AK41" s="40"/>
-      <c r="AL41" s="40"/>
-      <c r="AM41" s="40"/>
-      <c r="AN41" s="40"/>
-      <c r="AO41" s="40"/>
-      <c r="AP41" s="40"/>
-      <c r="AQ41" s="40"/>
-      <c r="AR41" s="40"/>
-      <c r="AS41" s="40"/>
-      <c r="AT41" s="42">
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="25"/>
+      <c r="AI41" s="25"/>
+      <c r="AJ41" s="25"/>
+      <c r="AK41" s="25"/>
+      <c r="AL41" s="25"/>
+      <c r="AM41" s="25"/>
+      <c r="AN41" s="25"/>
+      <c r="AO41" s="25"/>
+      <c r="AP41" s="25"/>
+      <c r="AQ41" s="25"/>
+      <c r="AR41" s="25"/>
+      <c r="AS41" s="25"/>
+      <c r="AT41" s="27">
         <v>0.99099999999999999</v>
       </c>
-      <c r="AU41" s="43">
+      <c r="AU41" s="28">
         <v>1411.99</v>
       </c>
     </row>
-    <row r="42" spans="1:47" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="31">
+    <row r="42" spans="1:47" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
         <v>9</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20">
         <v>12759.78</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="34">
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="20">
         <v>12759.78</v>
       </c>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
-      <c r="X42" s="34">
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="20">
         <v>12759.78</v>
       </c>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="33"/>
-      <c r="AC42" s="35">
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="21">
         <v>12759.78</v>
       </c>
-      <c r="AD42" s="33"/>
-      <c r="AE42" s="33"/>
-      <c r="AF42" s="33"/>
-      <c r="AG42" s="33"/>
-      <c r="AH42" s="33"/>
-      <c r="AI42" s="33"/>
-      <c r="AJ42" s="33"/>
-      <c r="AK42" s="33"/>
-      <c r="AL42" s="33"/>
-      <c r="AM42" s="33"/>
-      <c r="AN42" s="33"/>
-      <c r="AO42" s="33"/>
-      <c r="AP42" s="33"/>
-      <c r="AQ42" s="33"/>
-      <c r="AR42" s="33"/>
-      <c r="AS42" s="33"/>
-      <c r="AT42" s="33"/>
-      <c r="AU42" s="35">
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="19"/>
+      <c r="AJ42" s="19"/>
+      <c r="AK42" s="19"/>
+      <c r="AL42" s="19"/>
+      <c r="AM42" s="19"/>
+      <c r="AN42" s="19"/>
+      <c r="AO42" s="19"/>
+      <c r="AP42" s="19"/>
+      <c r="AQ42" s="19"/>
+      <c r="AR42" s="19"/>
+      <c r="AS42" s="19"/>
+      <c r="AT42" s="19"/>
+      <c r="AU42" s="21">
         <v>12759.78</v>
       </c>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37" t="s">
+      <c r="B43" s="38"/>
+      <c r="C43" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="23">
         <v>2.95</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="23">
         <v>2.95</v>
       </c>
-      <c r="F43" s="39">
+      <c r="F43" s="24">
         <v>3133.04</v>
       </c>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="38">
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="23">
         <v>2.95</v>
       </c>
-      <c r="J43" s="38">
+      <c r="J43" s="23">
         <v>2.95</v>
       </c>
-      <c r="K43" s="39">
+      <c r="K43" s="24">
         <v>3133.04</v>
       </c>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="38">
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="23">
         <v>2.95</v>
       </c>
-      <c r="W43" s="39">
+      <c r="W43" s="24">
         <v>1062.05</v>
       </c>
-      <c r="X43" s="39">
+      <c r="X43" s="24">
         <v>3133.04</v>
       </c>
-      <c r="Y43" s="40"/>
-      <c r="Z43" s="41"/>
-      <c r="AA43" s="40"/>
-      <c r="AB43" s="42">
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="27">
         <v>2.95</v>
       </c>
-      <c r="AC43" s="43">
+      <c r="AC43" s="28">
         <v>3133.04</v>
       </c>
-      <c r="AD43" s="40"/>
-      <c r="AE43" s="40"/>
-      <c r="AF43" s="40"/>
-      <c r="AG43" s="40"/>
-      <c r="AH43" s="40"/>
-      <c r="AI43" s="40"/>
-      <c r="AJ43" s="40"/>
-      <c r="AK43" s="40"/>
-      <c r="AL43" s="40"/>
-      <c r="AM43" s="40"/>
-      <c r="AN43" s="40"/>
-      <c r="AO43" s="40"/>
-      <c r="AP43" s="40"/>
-      <c r="AQ43" s="40"/>
-      <c r="AR43" s="40"/>
-      <c r="AS43" s="40"/>
-      <c r="AT43" s="42">
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="25"/>
+      <c r="AJ43" s="25"/>
+      <c r="AK43" s="25"/>
+      <c r="AL43" s="25"/>
+      <c r="AM43" s="25"/>
+      <c r="AN43" s="25"/>
+      <c r="AO43" s="25"/>
+      <c r="AP43" s="25"/>
+      <c r="AQ43" s="25"/>
+      <c r="AR43" s="25"/>
+      <c r="AS43" s="25"/>
+      <c r="AT43" s="27">
         <v>2.95</v>
       </c>
-      <c r="AU43" s="43">
+      <c r="AU43" s="28">
         <v>3133.04</v>
       </c>
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37" t="s">
+      <c r="B44" s="38"/>
+      <c r="C44" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="38">
+      <c r="D44" s="23">
         <v>12.135999999999999</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44" s="23">
         <v>12.135999999999999</v>
       </c>
-      <c r="F44" s="39">
+      <c r="F44" s="24">
         <v>9626.74</v>
       </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="38">
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="23">
         <v>12.135999999999999</v>
       </c>
-      <c r="J44" s="38">
+      <c r="J44" s="23">
         <v>12.135999999999999</v>
       </c>
-      <c r="K44" s="39">
+      <c r="K44" s="24">
         <v>9626.74</v>
       </c>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="38">
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="23">
         <v>12.135999999999999</v>
       </c>
-      <c r="W44" s="44">
+      <c r="W44" s="29">
         <v>793.24</v>
       </c>
-      <c r="X44" s="39">
+      <c r="X44" s="24">
         <v>9626.74</v>
       </c>
-      <c r="Y44" s="40"/>
-      <c r="Z44" s="41"/>
-      <c r="AA44" s="40"/>
-      <c r="AB44" s="42">
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="27">
         <v>12.135999999999999</v>
       </c>
-      <c r="AC44" s="43">
+      <c r="AC44" s="28">
         <v>9626.74</v>
       </c>
-      <c r="AD44" s="40"/>
-      <c r="AE44" s="40"/>
-      <c r="AF44" s="40"/>
-      <c r="AG44" s="40"/>
-      <c r="AH44" s="40"/>
-      <c r="AI44" s="40"/>
-      <c r="AJ44" s="40"/>
-      <c r="AK44" s="40"/>
-      <c r="AL44" s="40"/>
-      <c r="AM44" s="40"/>
-      <c r="AN44" s="40"/>
-      <c r="AO44" s="40"/>
-      <c r="AP44" s="40"/>
-      <c r="AQ44" s="40"/>
-      <c r="AR44" s="40"/>
-      <c r="AS44" s="40"/>
-      <c r="AT44" s="42">
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="25"/>
+      <c r="AF44" s="25"/>
+      <c r="AG44" s="25"/>
+      <c r="AH44" s="25"/>
+      <c r="AI44" s="25"/>
+      <c r="AJ44" s="25"/>
+      <c r="AK44" s="25"/>
+      <c r="AL44" s="25"/>
+      <c r="AM44" s="25"/>
+      <c r="AN44" s="25"/>
+      <c r="AO44" s="25"/>
+      <c r="AP44" s="25"/>
+      <c r="AQ44" s="25"/>
+      <c r="AR44" s="25"/>
+      <c r="AS44" s="25"/>
+      <c r="AT44" s="27">
         <v>12.135999999999999</v>
       </c>
-      <c r="AU44" s="43">
+      <c r="AU44" s="28">
         <v>9626.74</v>
       </c>
     </row>
-    <row r="45" spans="1:47" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="25" t="s">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="13">
         <v>609451.65</v>
       </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="27">
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="13">
         <v>609451.65</v>
       </c>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="26"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="26"/>
-      <c r="AE45" s="26"/>
-      <c r="AF45" s="27">
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="13">
         <v>422553.63</v>
       </c>
-      <c r="AG45" s="26"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="26"/>
-      <c r="AK45" s="28">
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="14">
         <v>422553.63</v>
       </c>
-      <c r="AL45" s="26"/>
-      <c r="AM45" s="26"/>
-      <c r="AN45" s="27">
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="13">
         <v>186898.02</v>
       </c>
-      <c r="AO45" s="26"/>
-      <c r="AP45" s="26"/>
-      <c r="AQ45" s="26"/>
-      <c r="AR45" s="26"/>
-      <c r="AS45" s="28">
+      <c r="AO45" s="12"/>
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="12"/>
+      <c r="AS45" s="14">
         <v>186898.02</v>
       </c>
-      <c r="AT45" s="26"/>
-      <c r="AU45" s="28">
+      <c r="AT45" s="12"/>
+      <c r="AU45" s="14">
         <v>609451.65</v>
       </c>
     </row>
-    <row r="46" spans="1:47" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="31">
+    <row r="46" spans="1:47" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
         <v>15</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="34">
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20">
         <v>7382.77</v>
       </c>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="34">
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="20">
         <v>7382.77</v>
       </c>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="33"/>
-      <c r="AD46" s="33"/>
-      <c r="AE46" s="33"/>
-      <c r="AF46" s="34">
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
+      <c r="AF46" s="20">
         <v>7382.77</v>
       </c>
-      <c r="AG46" s="33"/>
-      <c r="AH46" s="33"/>
-      <c r="AI46" s="33"/>
-      <c r="AJ46" s="33"/>
-      <c r="AK46" s="35">
+      <c r="AG46" s="19"/>
+      <c r="AH46" s="19"/>
+      <c r="AI46" s="19"/>
+      <c r="AJ46" s="19"/>
+      <c r="AK46" s="21">
         <v>7382.77</v>
       </c>
-      <c r="AL46" s="33"/>
-      <c r="AM46" s="33"/>
-      <c r="AN46" s="33"/>
-      <c r="AO46" s="33"/>
-      <c r="AP46" s="33"/>
-      <c r="AQ46" s="33"/>
-      <c r="AR46" s="33"/>
-      <c r="AS46" s="33"/>
-      <c r="AT46" s="33"/>
-      <c r="AU46" s="35">
+      <c r="AL46" s="19"/>
+      <c r="AM46" s="19"/>
+      <c r="AN46" s="19"/>
+      <c r="AO46" s="19"/>
+      <c r="AP46" s="19"/>
+      <c r="AQ46" s="19"/>
+      <c r="AR46" s="19"/>
+      <c r="AS46" s="19"/>
+      <c r="AT46" s="19"/>
+      <c r="AU46" s="21">
         <v>7382.77</v>
       </c>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37" t="s">
+      <c r="B47" s="38"/>
+      <c r="C47" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="23">
         <v>0.27</v>
       </c>
-      <c r="E47" s="38">
+      <c r="E47" s="23">
         <v>0.27</v>
       </c>
-      <c r="F47" s="44">
+      <c r="F47" s="29">
         <v>286.99</v>
       </c>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="38">
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="23">
         <v>0.27</v>
       </c>
-      <c r="J47" s="38">
+      <c r="J47" s="23">
         <v>0.27</v>
       </c>
-      <c r="K47" s="44">
+      <c r="K47" s="29">
         <v>286.99</v>
       </c>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="40"/>
-      <c r="V47" s="40"/>
-      <c r="W47" s="40"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="40"/>
-      <c r="AB47" s="40"/>
-      <c r="AC47" s="40"/>
-      <c r="AD47" s="38">
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="23">
         <v>0.27</v>
       </c>
-      <c r="AE47" s="39">
+      <c r="AE47" s="24">
         <v>1062.93</v>
       </c>
-      <c r="AF47" s="44">
+      <c r="AF47" s="29">
         <v>286.99</v>
       </c>
-      <c r="AG47" s="40"/>
-      <c r="AH47" s="41"/>
-      <c r="AI47" s="40"/>
-      <c r="AJ47" s="42">
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="26"/>
+      <c r="AI47" s="25"/>
+      <c r="AJ47" s="27">
         <v>0.27</v>
       </c>
-      <c r="AK47" s="45">
+      <c r="AK47" s="30">
         <v>286.99</v>
       </c>
-      <c r="AL47" s="40"/>
-      <c r="AM47" s="40"/>
-      <c r="AN47" s="40"/>
-      <c r="AO47" s="40"/>
-      <c r="AP47" s="40"/>
-      <c r="AQ47" s="40"/>
-      <c r="AR47" s="40"/>
-      <c r="AS47" s="40"/>
-      <c r="AT47" s="42">
+      <c r="AL47" s="25"/>
+      <c r="AM47" s="25"/>
+      <c r="AN47" s="25"/>
+      <c r="AO47" s="25"/>
+      <c r="AP47" s="25"/>
+      <c r="AQ47" s="25"/>
+      <c r="AR47" s="25"/>
+      <c r="AS47" s="25"/>
+      <c r="AT47" s="27">
         <v>0.27</v>
       </c>
-      <c r="AU47" s="45">
+      <c r="AU47" s="30">
         <v>286.99</v>
       </c>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37" t="s">
+      <c r="B48" s="38"/>
+      <c r="C48" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="38">
+      <c r="D48" s="23">
         <v>7.8739999999999997</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48" s="23">
         <v>7.8739999999999997</v>
       </c>
-      <c r="F48" s="39">
+      <c r="F48" s="24">
         <v>7095.78</v>
       </c>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="38">
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="23">
         <v>7.8739999999999997</v>
       </c>
-      <c r="J48" s="38">
+      <c r="J48" s="23">
         <v>7.8739999999999997</v>
       </c>
-      <c r="K48" s="39">
+      <c r="K48" s="24">
         <v>7095.78</v>
       </c>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
-      <c r="W48" s="40"/>
-      <c r="X48" s="40"/>
-      <c r="Y48" s="40"/>
-      <c r="Z48" s="40"/>
-      <c r="AA48" s="40"/>
-      <c r="AB48" s="40"/>
-      <c r="AC48" s="40"/>
-      <c r="AD48" s="38">
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="25"/>
+      <c r="AD48" s="23">
         <v>7.8739999999999997</v>
       </c>
-      <c r="AE48" s="44">
+      <c r="AE48" s="29">
         <v>901.17</v>
       </c>
-      <c r="AF48" s="39">
+      <c r="AF48" s="24">
         <v>7095.78</v>
       </c>
-      <c r="AG48" s="40"/>
-      <c r="AH48" s="41"/>
-      <c r="AI48" s="40"/>
-      <c r="AJ48" s="42">
+      <c r="AG48" s="25"/>
+      <c r="AH48" s="26"/>
+      <c r="AI48" s="25"/>
+      <c r="AJ48" s="27">
         <v>7.8739999999999997</v>
       </c>
-      <c r="AK48" s="43">
+      <c r="AK48" s="28">
         <v>7095.78</v>
       </c>
-      <c r="AL48" s="40"/>
-      <c r="AM48" s="40"/>
-      <c r="AN48" s="40"/>
-      <c r="AO48" s="40"/>
-      <c r="AP48" s="40"/>
-      <c r="AQ48" s="40"/>
-      <c r="AR48" s="40"/>
-      <c r="AS48" s="40"/>
-      <c r="AT48" s="42">
+      <c r="AL48" s="25"/>
+      <c r="AM48" s="25"/>
+      <c r="AN48" s="25"/>
+      <c r="AO48" s="25"/>
+      <c r="AP48" s="25"/>
+      <c r="AQ48" s="25"/>
+      <c r="AR48" s="25"/>
+      <c r="AS48" s="25"/>
+      <c r="AT48" s="27">
         <v>7.8739999999999997</v>
       </c>
-      <c r="AU48" s="43">
+      <c r="AU48" s="28">
         <v>7095.78</v>
       </c>
     </row>
-    <row r="49" spans="1:47" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="31">
+    <row r="49" spans="1:47" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
         <v>16</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="34">
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20">
         <v>43424.17</v>
       </c>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="34">
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="20">
         <v>43424.17</v>
       </c>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="33"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="33"/>
-      <c r="AD49" s="33"/>
-      <c r="AE49" s="33"/>
-      <c r="AF49" s="34">
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="19"/>
+      <c r="AE49" s="19"/>
+      <c r="AF49" s="20">
         <v>43424.17</v>
       </c>
-      <c r="AG49" s="33"/>
-      <c r="AH49" s="33"/>
-      <c r="AI49" s="33"/>
-      <c r="AJ49" s="33"/>
-      <c r="AK49" s="35">
+      <c r="AG49" s="19"/>
+      <c r="AH49" s="19"/>
+      <c r="AI49" s="19"/>
+      <c r="AJ49" s="19"/>
+      <c r="AK49" s="21">
         <v>43424.17</v>
       </c>
-      <c r="AL49" s="33"/>
-      <c r="AM49" s="33"/>
-      <c r="AN49" s="33"/>
-      <c r="AO49" s="33"/>
-      <c r="AP49" s="33"/>
-      <c r="AQ49" s="33"/>
-      <c r="AR49" s="33"/>
-      <c r="AS49" s="33"/>
-      <c r="AT49" s="33"/>
-      <c r="AU49" s="35">
+      <c r="AL49" s="19"/>
+      <c r="AM49" s="19"/>
+      <c r="AN49" s="19"/>
+      <c r="AO49" s="19"/>
+      <c r="AP49" s="19"/>
+      <c r="AQ49" s="19"/>
+      <c r="AR49" s="19"/>
+      <c r="AS49" s="19"/>
+      <c r="AT49" s="19"/>
+      <c r="AU49" s="21">
         <v>43424.17</v>
       </c>
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="37" t="s">
+      <c r="B50" s="38"/>
+      <c r="C50" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="38">
+      <c r="D50" s="23">
         <v>46.55</v>
       </c>
-      <c r="E50" s="38">
+      <c r="E50" s="23">
         <v>46.55</v>
       </c>
-      <c r="F50" s="39">
+      <c r="F50" s="24">
         <v>43424.17</v>
       </c>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="38">
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="23">
         <v>46.55</v>
       </c>
-      <c r="J50" s="38">
+      <c r="J50" s="23">
         <v>46.55</v>
       </c>
-      <c r="K50" s="39">
+      <c r="K50" s="24">
         <v>43424.17</v>
       </c>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="40"/>
-      <c r="Z50" s="40"/>
-      <c r="AA50" s="40"/>
-      <c r="AB50" s="40"/>
-      <c r="AC50" s="40"/>
-      <c r="AD50" s="38">
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="25"/>
+      <c r="AA50" s="25"/>
+      <c r="AB50" s="25"/>
+      <c r="AC50" s="25"/>
+      <c r="AD50" s="23">
         <v>46.55</v>
       </c>
-      <c r="AE50" s="44">
+      <c r="AE50" s="29">
         <v>932.85</v>
       </c>
-      <c r="AF50" s="39">
+      <c r="AF50" s="24">
         <v>43424.17</v>
       </c>
-      <c r="AG50" s="40"/>
-      <c r="AH50" s="41"/>
-      <c r="AI50" s="40"/>
-      <c r="AJ50" s="42">
+      <c r="AG50" s="25"/>
+      <c r="AH50" s="26"/>
+      <c r="AI50" s="25"/>
+      <c r="AJ50" s="27">
         <v>46.55</v>
       </c>
-      <c r="AK50" s="43">
+      <c r="AK50" s="28">
         <v>43424.17</v>
       </c>
-      <c r="AL50" s="40"/>
-      <c r="AM50" s="40"/>
-      <c r="AN50" s="40"/>
-      <c r="AO50" s="40"/>
-      <c r="AP50" s="40"/>
-      <c r="AQ50" s="40"/>
-      <c r="AR50" s="40"/>
-      <c r="AS50" s="40"/>
-      <c r="AT50" s="42">
+      <c r="AL50" s="25"/>
+      <c r="AM50" s="25"/>
+      <c r="AN50" s="25"/>
+      <c r="AO50" s="25"/>
+      <c r="AP50" s="25"/>
+      <c r="AQ50" s="25"/>
+      <c r="AR50" s="25"/>
+      <c r="AS50" s="25"/>
+      <c r="AT50" s="27">
         <v>46.55</v>
       </c>
-      <c r="AU50" s="43">
+      <c r="AU50" s="28">
         <v>43424.17</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="31">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
         <v>18</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34">
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20">
         <v>137672.66</v>
       </c>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="34">
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="20">
         <v>137672.66</v>
       </c>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="33"/>
-      <c r="W51" s="33"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="33"/>
-      <c r="AD51" s="33"/>
-      <c r="AE51" s="33"/>
-      <c r="AF51" s="34">
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="19"/>
+      <c r="AF51" s="20">
         <v>137672.66</v>
       </c>
-      <c r="AG51" s="33"/>
-      <c r="AH51" s="33"/>
-      <c r="AI51" s="33"/>
-      <c r="AJ51" s="33"/>
-      <c r="AK51" s="35">
+      <c r="AG51" s="19"/>
+      <c r="AH51" s="19"/>
+      <c r="AI51" s="19"/>
+      <c r="AJ51" s="19"/>
+      <c r="AK51" s="21">
         <v>137672.66</v>
       </c>
-      <c r="AL51" s="33"/>
-      <c r="AM51" s="33"/>
-      <c r="AN51" s="33"/>
-      <c r="AO51" s="33"/>
-      <c r="AP51" s="33"/>
-      <c r="AQ51" s="33"/>
-      <c r="AR51" s="33"/>
-      <c r="AS51" s="33"/>
-      <c r="AT51" s="33"/>
-      <c r="AU51" s="35">
+      <c r="AL51" s="19"/>
+      <c r="AM51" s="19"/>
+      <c r="AN51" s="19"/>
+      <c r="AO51" s="19"/>
+      <c r="AP51" s="19"/>
+      <c r="AQ51" s="19"/>
+      <c r="AR51" s="19"/>
+      <c r="AS51" s="19"/>
+      <c r="AT51" s="19"/>
+      <c r="AU51" s="21">
         <v>137672.66</v>
       </c>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="37" t="s">
+      <c r="B52" s="38"/>
+      <c r="C52" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D52" s="38">
+      <c r="D52" s="23">
         <v>73.153000000000006</v>
       </c>
-      <c r="E52" s="38">
+      <c r="E52" s="23">
         <v>73.153000000000006</v>
       </c>
-      <c r="F52" s="39">
+      <c r="F52" s="24">
         <v>90959.3</v>
       </c>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="38">
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="23">
         <v>73.153000000000006</v>
       </c>
-      <c r="J52" s="38">
+      <c r="J52" s="23">
         <v>73.153000000000006</v>
       </c>
-      <c r="K52" s="39">
+      <c r="K52" s="24">
         <v>90959.3</v>
       </c>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="40"/>
-      <c r="Y52" s="40"/>
-      <c r="Z52" s="40"/>
-      <c r="AA52" s="40"/>
-      <c r="AB52" s="40"/>
-      <c r="AC52" s="40"/>
-      <c r="AD52" s="38">
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="25"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="25"/>
+      <c r="AA52" s="25"/>
+      <c r="AB52" s="25"/>
+      <c r="AC52" s="25"/>
+      <c r="AD52" s="23">
         <v>73.153000000000006</v>
       </c>
-      <c r="AE52" s="39">
+      <c r="AE52" s="24">
         <v>1243.4100000000001</v>
       </c>
-      <c r="AF52" s="39">
+      <c r="AF52" s="24">
         <v>90959.3</v>
       </c>
-      <c r="AG52" s="40"/>
-      <c r="AH52" s="41"/>
-      <c r="AI52" s="40"/>
-      <c r="AJ52" s="42">
+      <c r="AG52" s="25"/>
+      <c r="AH52" s="26"/>
+      <c r="AI52" s="25"/>
+      <c r="AJ52" s="27">
         <v>73.153000000000006</v>
       </c>
-      <c r="AK52" s="43">
+      <c r="AK52" s="28">
         <v>90959.3</v>
       </c>
-      <c r="AL52" s="40"/>
-      <c r="AM52" s="40"/>
-      <c r="AN52" s="40"/>
-      <c r="AO52" s="40"/>
-      <c r="AP52" s="40"/>
-      <c r="AQ52" s="40"/>
-      <c r="AR52" s="40"/>
-      <c r="AS52" s="40"/>
-      <c r="AT52" s="42">
+      <c r="AL52" s="25"/>
+      <c r="AM52" s="25"/>
+      <c r="AN52" s="25"/>
+      <c r="AO52" s="25"/>
+      <c r="AP52" s="25"/>
+      <c r="AQ52" s="25"/>
+      <c r="AR52" s="25"/>
+      <c r="AS52" s="25"/>
+      <c r="AT52" s="27">
         <v>73.153000000000006</v>
       </c>
-      <c r="AU52" s="43">
+      <c r="AU52" s="28">
         <v>90959.3</v>
       </c>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="37" t="s">
+      <c r="B53" s="38"/>
+      <c r="C53" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="38">
+      <c r="D53" s="23">
         <v>43.98</v>
       </c>
-      <c r="E53" s="38">
+      <c r="E53" s="23">
         <v>43.98</v>
       </c>
-      <c r="F53" s="39">
+      <c r="F53" s="24">
         <v>46713.36</v>
       </c>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="38">
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="23">
         <v>43.98</v>
       </c>
-      <c r="J53" s="38">
+      <c r="J53" s="23">
         <v>43.98</v>
       </c>
-      <c r="K53" s="39">
+      <c r="K53" s="24">
         <v>46713.36</v>
       </c>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="40"/>
-      <c r="Z53" s="40"/>
-      <c r="AA53" s="40"/>
-      <c r="AB53" s="40"/>
-      <c r="AC53" s="40"/>
-      <c r="AD53" s="38">
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
+      <c r="AA53" s="25"/>
+      <c r="AB53" s="25"/>
+      <c r="AC53" s="25"/>
+      <c r="AD53" s="23">
         <v>43.98</v>
       </c>
-      <c r="AE53" s="39">
+      <c r="AE53" s="24">
         <v>1062.1500000000001</v>
       </c>
-      <c r="AF53" s="39">
+      <c r="AF53" s="24">
         <v>46713.36</v>
       </c>
-      <c r="AG53" s="40"/>
-      <c r="AH53" s="41"/>
-      <c r="AI53" s="40"/>
-      <c r="AJ53" s="42">
+      <c r="AG53" s="25"/>
+      <c r="AH53" s="26"/>
+      <c r="AI53" s="25"/>
+      <c r="AJ53" s="27">
         <v>43.98</v>
       </c>
-      <c r="AK53" s="43">
+      <c r="AK53" s="28">
         <v>46713.36</v>
       </c>
-      <c r="AL53" s="40"/>
-      <c r="AM53" s="40"/>
-      <c r="AN53" s="40"/>
-      <c r="AO53" s="40"/>
-      <c r="AP53" s="40"/>
-      <c r="AQ53" s="40"/>
-      <c r="AR53" s="40"/>
-      <c r="AS53" s="40"/>
-      <c r="AT53" s="42">
+      <c r="AL53" s="25"/>
+      <c r="AM53" s="25"/>
+      <c r="AN53" s="25"/>
+      <c r="AO53" s="25"/>
+      <c r="AP53" s="25"/>
+      <c r="AQ53" s="25"/>
+      <c r="AR53" s="25"/>
+      <c r="AS53" s="25"/>
+      <c r="AT53" s="27">
         <v>43.98</v>
       </c>
-      <c r="AU53" s="43">
+      <c r="AU53" s="28">
         <v>46713.36</v>
       </c>
     </row>
-    <row r="54" spans="1:47" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="31">
+    <row r="54" spans="1:47" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
         <v>20</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34">
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="20">
         <v>124001.43</v>
       </c>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="34">
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="20">
         <v>124001.43</v>
       </c>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="33"/>
-      <c r="U54" s="33"/>
-      <c r="V54" s="33"/>
-      <c r="W54" s="33"/>
-      <c r="X54" s="33"/>
-      <c r="Y54" s="33"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="33"/>
-      <c r="AB54" s="33"/>
-      <c r="AC54" s="33"/>
-      <c r="AD54" s="33"/>
-      <c r="AE54" s="33"/>
-      <c r="AF54" s="34">
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19"/>
+      <c r="AC54" s="19"/>
+      <c r="AD54" s="19"/>
+      <c r="AE54" s="19"/>
+      <c r="AF54" s="20">
         <v>124001.43</v>
       </c>
-      <c r="AG54" s="33"/>
-      <c r="AH54" s="33"/>
-      <c r="AI54" s="33"/>
-      <c r="AJ54" s="33"/>
-      <c r="AK54" s="35">
+      <c r="AG54" s="19"/>
+      <c r="AH54" s="19"/>
+      <c r="AI54" s="19"/>
+      <c r="AJ54" s="19"/>
+      <c r="AK54" s="21">
         <v>124001.43</v>
       </c>
-      <c r="AL54" s="33"/>
-      <c r="AM54" s="33"/>
-      <c r="AN54" s="33"/>
-      <c r="AO54" s="33"/>
-      <c r="AP54" s="33"/>
-      <c r="AQ54" s="33"/>
-      <c r="AR54" s="33"/>
-      <c r="AS54" s="33"/>
-      <c r="AT54" s="33"/>
-      <c r="AU54" s="35">
+      <c r="AL54" s="19"/>
+      <c r="AM54" s="19"/>
+      <c r="AN54" s="19"/>
+      <c r="AO54" s="19"/>
+      <c r="AP54" s="19"/>
+      <c r="AQ54" s="19"/>
+      <c r="AR54" s="19"/>
+      <c r="AS54" s="19"/>
+      <c r="AT54" s="19"/>
+      <c r="AU54" s="21">
         <v>124001.43</v>
       </c>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="37" t="s">
+      <c r="B55" s="38"/>
+      <c r="C55" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D55" s="38">
+      <c r="D55" s="23">
         <v>62.158000000000001</v>
       </c>
-      <c r="E55" s="38">
+      <c r="E55" s="23">
         <v>62.158000000000001</v>
       </c>
-      <c r="F55" s="39">
+      <c r="F55" s="24">
         <v>77288.070000000007</v>
       </c>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="38">
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="23">
         <v>62.158000000000001</v>
       </c>
-      <c r="J55" s="38">
+      <c r="J55" s="23">
         <v>62.158000000000001</v>
       </c>
-      <c r="K55" s="39">
+      <c r="K55" s="24">
         <v>77288.070000000007</v>
       </c>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
-      <c r="X55" s="40"/>
-      <c r="Y55" s="40"/>
-      <c r="Z55" s="40"/>
-      <c r="AA55" s="40"/>
-      <c r="AB55" s="40"/>
-      <c r="AC55" s="40"/>
-      <c r="AD55" s="38">
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="25"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="25"/>
+      <c r="AA55" s="25"/>
+      <c r="AB55" s="25"/>
+      <c r="AC55" s="25"/>
+      <c r="AD55" s="23">
         <v>62.158000000000001</v>
       </c>
-      <c r="AE55" s="39">
+      <c r="AE55" s="24">
         <v>1243.4100000000001</v>
       </c>
-      <c r="AF55" s="39">
+      <c r="AF55" s="24">
         <v>77288.070000000007</v>
       </c>
-      <c r="AG55" s="40"/>
-      <c r="AH55" s="41"/>
-      <c r="AI55" s="40"/>
-      <c r="AJ55" s="42">
+      <c r="AG55" s="25"/>
+      <c r="AH55" s="26"/>
+      <c r="AI55" s="25"/>
+      <c r="AJ55" s="27">
         <v>62.158000000000001</v>
       </c>
-      <c r="AK55" s="43">
+      <c r="AK55" s="28">
         <v>77288.070000000007</v>
       </c>
-      <c r="AL55" s="40"/>
-      <c r="AM55" s="40"/>
-      <c r="AN55" s="40"/>
-      <c r="AO55" s="40"/>
-      <c r="AP55" s="40"/>
-      <c r="AQ55" s="40"/>
-      <c r="AR55" s="40"/>
-      <c r="AS55" s="40"/>
-      <c r="AT55" s="42">
+      <c r="AL55" s="25"/>
+      <c r="AM55" s="25"/>
+      <c r="AN55" s="25"/>
+      <c r="AO55" s="25"/>
+      <c r="AP55" s="25"/>
+      <c r="AQ55" s="25"/>
+      <c r="AR55" s="25"/>
+      <c r="AS55" s="25"/>
+      <c r="AT55" s="27">
         <v>62.158000000000001</v>
       </c>
-      <c r="AU55" s="43">
+      <c r="AU55" s="28">
         <v>77288.070000000007</v>
       </c>
     </row>
     <row r="56" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="37" t="s">
+      <c r="B56" s="38"/>
+      <c r="C56" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D56" s="38">
+      <c r="D56" s="23">
         <v>43.98</v>
       </c>
-      <c r="E56" s="38">
+      <c r="E56" s="23">
         <v>43.98</v>
       </c>
-      <c r="F56" s="39">
+      <c r="F56" s="24">
         <v>46713.36</v>
       </c>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="38">
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="23">
         <v>43.98</v>
       </c>
-      <c r="J56" s="38">
+      <c r="J56" s="23">
         <v>43.98</v>
       </c>
-      <c r="K56" s="39">
+      <c r="K56" s="24">
         <v>46713.36</v>
       </c>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="40"/>
-      <c r="U56" s="40"/>
-      <c r="V56" s="40"/>
-      <c r="W56" s="40"/>
-      <c r="X56" s="40"/>
-      <c r="Y56" s="40"/>
-      <c r="Z56" s="40"/>
-      <c r="AA56" s="40"/>
-      <c r="AB56" s="40"/>
-      <c r="AC56" s="40"/>
-      <c r="AD56" s="38">
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="25"/>
+      <c r="AA56" s="25"/>
+      <c r="AB56" s="25"/>
+      <c r="AC56" s="25"/>
+      <c r="AD56" s="23">
         <v>43.98</v>
       </c>
-      <c r="AE56" s="39">
+      <c r="AE56" s="24">
         <v>1062.1500000000001</v>
       </c>
-      <c r="AF56" s="39">
+      <c r="AF56" s="24">
         <v>46713.36</v>
       </c>
-      <c r="AG56" s="40"/>
-      <c r="AH56" s="41"/>
-      <c r="AI56" s="40"/>
-      <c r="AJ56" s="42">
+      <c r="AG56" s="25"/>
+      <c r="AH56" s="26"/>
+      <c r="AI56" s="25"/>
+      <c r="AJ56" s="27">
         <v>43.98</v>
       </c>
-      <c r="AK56" s="43">
+      <c r="AK56" s="28">
         <v>46713.36</v>
       </c>
-      <c r="AL56" s="40"/>
-      <c r="AM56" s="40"/>
-      <c r="AN56" s="40"/>
-      <c r="AO56" s="40"/>
-      <c r="AP56" s="40"/>
-      <c r="AQ56" s="40"/>
-      <c r="AR56" s="40"/>
-      <c r="AS56" s="40"/>
-      <c r="AT56" s="42">
+      <c r="AL56" s="25"/>
+      <c r="AM56" s="25"/>
+      <c r="AN56" s="25"/>
+      <c r="AO56" s="25"/>
+      <c r="AP56" s="25"/>
+      <c r="AQ56" s="25"/>
+      <c r="AR56" s="25"/>
+      <c r="AS56" s="25"/>
+      <c r="AT56" s="27">
         <v>43.98</v>
       </c>
-      <c r="AU56" s="43">
+      <c r="AU56" s="28">
         <v>46713.36</v>
       </c>
     </row>
-    <row r="57" spans="1:47" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="31">
+    <row r="57" spans="1:47" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
         <v>22</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="34">
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="20">
         <v>204420.54</v>
       </c>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="34">
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="20">
         <v>204420.54</v>
       </c>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="33"/>
-      <c r="W57" s="33"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="33"/>
-      <c r="AD57" s="33"/>
-      <c r="AE57" s="33"/>
-      <c r="AF57" s="34">
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+      <c r="Z57" s="19"/>
+      <c r="AA57" s="19"/>
+      <c r="AB57" s="19"/>
+      <c r="AC57" s="19"/>
+      <c r="AD57" s="19"/>
+      <c r="AE57" s="19"/>
+      <c r="AF57" s="20">
         <v>110072.6</v>
       </c>
-      <c r="AG57" s="33"/>
-      <c r="AH57" s="33"/>
-      <c r="AI57" s="33"/>
-      <c r="AJ57" s="33"/>
-      <c r="AK57" s="35">
+      <c r="AG57" s="19"/>
+      <c r="AH57" s="19"/>
+      <c r="AI57" s="19"/>
+      <c r="AJ57" s="19"/>
+      <c r="AK57" s="21">
         <v>110072.6</v>
       </c>
-      <c r="AL57" s="33"/>
-      <c r="AM57" s="33"/>
-      <c r="AN57" s="34">
+      <c r="AL57" s="19"/>
+      <c r="AM57" s="19"/>
+      <c r="AN57" s="20">
         <v>94347.94</v>
       </c>
-      <c r="AO57" s="33"/>
-      <c r="AP57" s="33"/>
-      <c r="AQ57" s="33"/>
-      <c r="AR57" s="33"/>
-      <c r="AS57" s="35">
+      <c r="AO57" s="19"/>
+      <c r="AP57" s="19"/>
+      <c r="AQ57" s="19"/>
+      <c r="AR57" s="19"/>
+      <c r="AS57" s="21">
         <v>94347.94</v>
       </c>
-      <c r="AT57" s="33"/>
-      <c r="AU57" s="35">
+      <c r="AT57" s="19"/>
+      <c r="AU57" s="21">
         <v>204420.54</v>
       </c>
     </row>
     <row r="58" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="37" t="s">
+      <c r="B58" s="38"/>
+      <c r="C58" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D58" s="38">
+      <c r="D58" s="23">
         <v>60.545999999999999</v>
       </c>
-      <c r="E58" s="38">
+      <c r="E58" s="23">
         <v>60.545999999999999</v>
       </c>
-      <c r="F58" s="39">
+      <c r="F58" s="24">
         <v>64280.47</v>
       </c>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="38">
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="23">
         <v>60.545999999999999</v>
       </c>
-      <c r="J58" s="38">
+      <c r="J58" s="23">
         <v>60.545999999999999</v>
       </c>
-      <c r="K58" s="39">
+      <c r="K58" s="24">
         <v>64280.47</v>
       </c>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="40"/>
-      <c r="V58" s="40"/>
-      <c r="W58" s="40"/>
-      <c r="X58" s="40"/>
-      <c r="Y58" s="40"/>
-      <c r="Z58" s="40"/>
-      <c r="AA58" s="40"/>
-      <c r="AB58" s="40"/>
-      <c r="AC58" s="40"/>
-      <c r="AD58" s="38">
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="25"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="25"/>
+      <c r="Z58" s="25"/>
+      <c r="AA58" s="25"/>
+      <c r="AB58" s="25"/>
+      <c r="AC58" s="25"/>
+      <c r="AD58" s="23">
         <v>32.601692</v>
       </c>
-      <c r="AE58" s="39">
+      <c r="AE58" s="24">
         <v>1061.68</v>
       </c>
-      <c r="AF58" s="39">
+      <c r="AF58" s="24">
         <v>34612.559999999998</v>
       </c>
-      <c r="AG58" s="40"/>
-      <c r="AH58" s="41"/>
-      <c r="AI58" s="40"/>
-      <c r="AJ58" s="42">
+      <c r="AG58" s="25"/>
+      <c r="AH58" s="26"/>
+      <c r="AI58" s="25"/>
+      <c r="AJ58" s="27">
         <v>32.601700000000001</v>
       </c>
-      <c r="AK58" s="43">
+      <c r="AK58" s="28">
         <v>34612.559999999998</v>
       </c>
-      <c r="AL58" s="38">
+      <c r="AL58" s="23">
         <v>27.944307999999999</v>
       </c>
-      <c r="AM58" s="39">
+      <c r="AM58" s="24">
         <v>1061.68</v>
       </c>
-      <c r="AN58" s="39">
+      <c r="AN58" s="24">
         <v>29667.91</v>
       </c>
-      <c r="AO58" s="40"/>
-      <c r="AP58" s="41"/>
-      <c r="AQ58" s="40"/>
-      <c r="AR58" s="42">
+      <c r="AO58" s="25"/>
+      <c r="AP58" s="26"/>
+      <c r="AQ58" s="25"/>
+      <c r="AR58" s="27">
         <v>27.944299999999998</v>
       </c>
-      <c r="AS58" s="43">
+      <c r="AS58" s="28">
         <v>29667.91</v>
       </c>
-      <c r="AT58" s="42">
+      <c r="AT58" s="27">
         <v>60.545999999999999</v>
       </c>
-      <c r="AU58" s="43">
+      <c r="AU58" s="28">
         <v>64280.47</v>
       </c>
     </row>
     <row r="59" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="37" t="s">
+      <c r="B59" s="38"/>
+      <c r="C59" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="38">
+      <c r="D59" s="23">
         <v>131.94</v>
       </c>
-      <c r="E59" s="38">
+      <c r="E59" s="23">
         <v>131.94</v>
       </c>
-      <c r="F59" s="39">
+      <c r="F59" s="24">
         <v>140140.07</v>
       </c>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="38">
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="23">
         <v>131.94</v>
       </c>
-      <c r="J59" s="38">
+      <c r="J59" s="23">
         <v>131.94</v>
       </c>
-      <c r="K59" s="39">
+      <c r="K59" s="24">
         <v>140140.07</v>
       </c>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="40"/>
-      <c r="V59" s="40"/>
-      <c r="W59" s="40"/>
-      <c r="X59" s="40"/>
-      <c r="Y59" s="40"/>
-      <c r="Z59" s="40"/>
-      <c r="AA59" s="40"/>
-      <c r="AB59" s="40"/>
-      <c r="AC59" s="40"/>
-      <c r="AD59" s="38">
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="25"/>
+      <c r="W59" s="25"/>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="25"/>
+      <c r="Z59" s="25"/>
+      <c r="AA59" s="25"/>
+      <c r="AB59" s="25"/>
+      <c r="AC59" s="25"/>
+      <c r="AD59" s="23">
         <v>71.044616000000005</v>
       </c>
-      <c r="AE59" s="39">
+      <c r="AE59" s="24">
         <v>1062.1500000000001</v>
       </c>
-      <c r="AF59" s="39">
+      <c r="AF59" s="24">
         <v>75460.039999999994</v>
       </c>
-      <c r="AG59" s="40"/>
-      <c r="AH59" s="41"/>
-      <c r="AI59" s="40"/>
-      <c r="AJ59" s="42">
+      <c r="AG59" s="25"/>
+      <c r="AH59" s="26"/>
+      <c r="AI59" s="25"/>
+      <c r="AJ59" s="27">
         <v>71.044600000000003</v>
       </c>
-      <c r="AK59" s="43">
+      <c r="AK59" s="28">
         <v>75460.039999999994</v>
       </c>
-      <c r="AL59" s="38">
+      <c r="AL59" s="23">
         <v>60.895384</v>
       </c>
-      <c r="AM59" s="39">
+      <c r="AM59" s="24">
         <v>1062.1500000000001</v>
       </c>
-      <c r="AN59" s="39">
+      <c r="AN59" s="24">
         <v>64680.03</v>
       </c>
-      <c r="AO59" s="40"/>
-      <c r="AP59" s="41"/>
-      <c r="AQ59" s="40"/>
-      <c r="AR59" s="42">
+      <c r="AO59" s="25"/>
+      <c r="AP59" s="26"/>
+      <c r="AQ59" s="25"/>
+      <c r="AR59" s="27">
         <v>60.895400000000002</v>
       </c>
-      <c r="AS59" s="43">
+      <c r="AS59" s="28">
         <v>64680.03</v>
       </c>
-      <c r="AT59" s="42">
+      <c r="AT59" s="27">
         <v>131.94</v>
       </c>
-      <c r="AU59" s="43">
+      <c r="AU59" s="28">
         <v>140140.07</v>
       </c>
     </row>
-    <row r="60" spans="1:47" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="31">
+    <row r="60" spans="1:47" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="17">
         <v>23</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34">
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20">
         <v>70102.27</v>
       </c>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="34">
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="20">
         <v>70102.27</v>
       </c>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="33"/>
-      <c r="U60" s="33"/>
-      <c r="V60" s="33"/>
-      <c r="W60" s="33"/>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="33"/>
-      <c r="AA60" s="33"/>
-      <c r="AB60" s="33"/>
-      <c r="AC60" s="33"/>
-      <c r="AD60" s="33"/>
-      <c r="AE60" s="33"/>
-      <c r="AF60" s="33"/>
-      <c r="AG60" s="33"/>
-      <c r="AH60" s="33"/>
-      <c r="AI60" s="33"/>
-      <c r="AJ60" s="33"/>
-      <c r="AK60" s="33"/>
-      <c r="AL60" s="33"/>
-      <c r="AM60" s="33"/>
-      <c r="AN60" s="34">
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="19"/>
+      <c r="Z60" s="19"/>
+      <c r="AA60" s="19"/>
+      <c r="AB60" s="19"/>
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19"/>
+      <c r="AE60" s="19"/>
+      <c r="AF60" s="19"/>
+      <c r="AG60" s="19"/>
+      <c r="AH60" s="19"/>
+      <c r="AI60" s="19"/>
+      <c r="AJ60" s="19"/>
+      <c r="AK60" s="19"/>
+      <c r="AL60" s="19"/>
+      <c r="AM60" s="19"/>
+      <c r="AN60" s="20">
         <v>70102.27</v>
       </c>
-      <c r="AO60" s="33"/>
-      <c r="AP60" s="33"/>
-      <c r="AQ60" s="33"/>
-      <c r="AR60" s="33"/>
-      <c r="AS60" s="35">
+      <c r="AO60" s="19"/>
+      <c r="AP60" s="19"/>
+      <c r="AQ60" s="19"/>
+      <c r="AR60" s="19"/>
+      <c r="AS60" s="21">
         <v>70102.27</v>
       </c>
-      <c r="AT60" s="33"/>
-      <c r="AU60" s="35">
+      <c r="AT60" s="19"/>
+      <c r="AU60" s="21">
         <v>70102.27</v>
       </c>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="37" t="s">
+      <c r="B61" s="38"/>
+      <c r="C61" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D61" s="38">
+      <c r="D61" s="23">
         <v>19.07</v>
       </c>
-      <c r="E61" s="38">
+      <c r="E61" s="23">
         <v>19.07</v>
       </c>
-      <c r="F61" s="39">
+      <c r="F61" s="24">
         <v>19883.82</v>
       </c>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="38">
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="23">
         <v>19.07</v>
       </c>
-      <c r="J61" s="38">
+      <c r="J61" s="23">
         <v>19.07</v>
       </c>
-      <c r="K61" s="39">
+      <c r="K61" s="24">
         <v>19883.82</v>
       </c>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="40"/>
-      <c r="V61" s="40"/>
-      <c r="W61" s="40"/>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="40"/>
-      <c r="Z61" s="40"/>
-      <c r="AA61" s="40"/>
-      <c r="AB61" s="40"/>
-      <c r="AC61" s="40"/>
-      <c r="AD61" s="40"/>
-      <c r="AE61" s="40"/>
-      <c r="AF61" s="40"/>
-      <c r="AG61" s="40"/>
-      <c r="AH61" s="40"/>
-      <c r="AI61" s="40"/>
-      <c r="AJ61" s="40"/>
-      <c r="AK61" s="40"/>
-      <c r="AL61" s="38">
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="25"/>
+      <c r="X61" s="25"/>
+      <c r="Y61" s="25"/>
+      <c r="Z61" s="25"/>
+      <c r="AA61" s="25"/>
+      <c r="AB61" s="25"/>
+      <c r="AC61" s="25"/>
+      <c r="AD61" s="25"/>
+      <c r="AE61" s="25"/>
+      <c r="AF61" s="25"/>
+      <c r="AG61" s="25"/>
+      <c r="AH61" s="25"/>
+      <c r="AI61" s="25"/>
+      <c r="AJ61" s="25"/>
+      <c r="AK61" s="25"/>
+      <c r="AL61" s="23">
         <v>19.07</v>
       </c>
-      <c r="AM61" s="39">
+      <c r="AM61" s="24">
         <v>1042.68</v>
       </c>
-      <c r="AN61" s="39">
+      <c r="AN61" s="24">
         <v>19883.82</v>
       </c>
-      <c r="AO61" s="40"/>
-      <c r="AP61" s="41"/>
-      <c r="AQ61" s="40"/>
-      <c r="AR61" s="42">
+      <c r="AO61" s="25"/>
+      <c r="AP61" s="26"/>
+      <c r="AQ61" s="25"/>
+      <c r="AR61" s="27">
         <v>19.07</v>
       </c>
-      <c r="AS61" s="43">
+      <c r="AS61" s="28">
         <v>19883.82</v>
       </c>
-      <c r="AT61" s="42">
+      <c r="AT61" s="27">
         <v>19.07</v>
       </c>
-      <c r="AU61" s="43">
+      <c r="AU61" s="28">
         <v>19883.82</v>
       </c>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="37" t="s">
+      <c r="B62" s="38"/>
+      <c r="C62" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D62" s="38">
+      <c r="D62" s="23">
         <v>47.28</v>
       </c>
-      <c r="E62" s="38">
+      <c r="E62" s="23">
         <v>47.28</v>
       </c>
-      <c r="F62" s="39">
+      <c r="F62" s="24">
         <v>50218.45</v>
       </c>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="38">
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="23">
         <v>47.28</v>
       </c>
-      <c r="J62" s="38">
+      <c r="J62" s="23">
         <v>47.28</v>
       </c>
-      <c r="K62" s="39">
+      <c r="K62" s="24">
         <v>50218.45</v>
       </c>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
-      <c r="X62" s="40"/>
-      <c r="Y62" s="40"/>
-      <c r="Z62" s="40"/>
-      <c r="AA62" s="40"/>
-      <c r="AB62" s="40"/>
-      <c r="AC62" s="40"/>
-      <c r="AD62" s="40"/>
-      <c r="AE62" s="40"/>
-      <c r="AF62" s="40"/>
-      <c r="AG62" s="40"/>
-      <c r="AH62" s="40"/>
-      <c r="AI62" s="40"/>
-      <c r="AJ62" s="40"/>
-      <c r="AK62" s="40"/>
-      <c r="AL62" s="38">
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="25"/>
+      <c r="W62" s="25"/>
+      <c r="X62" s="25"/>
+      <c r="Y62" s="25"/>
+      <c r="Z62" s="25"/>
+      <c r="AA62" s="25"/>
+      <c r="AB62" s="25"/>
+      <c r="AC62" s="25"/>
+      <c r="AD62" s="25"/>
+      <c r="AE62" s="25"/>
+      <c r="AF62" s="25"/>
+      <c r="AG62" s="25"/>
+      <c r="AH62" s="25"/>
+      <c r="AI62" s="25"/>
+      <c r="AJ62" s="25"/>
+      <c r="AK62" s="25"/>
+      <c r="AL62" s="23">
         <v>47.28</v>
       </c>
-      <c r="AM62" s="39">
+      <c r="AM62" s="24">
         <v>1062.1500000000001</v>
       </c>
-      <c r="AN62" s="39">
+      <c r="AN62" s="24">
         <v>50218.45</v>
       </c>
-      <c r="AO62" s="40"/>
-      <c r="AP62" s="41"/>
-      <c r="AQ62" s="40"/>
-      <c r="AR62" s="42">
+      <c r="AO62" s="25"/>
+      <c r="AP62" s="26"/>
+      <c r="AQ62" s="25"/>
+      <c r="AR62" s="27">
         <v>47.28</v>
       </c>
-      <c r="AS62" s="43">
+      <c r="AS62" s="28">
         <v>50218.45</v>
       </c>
-      <c r="AT62" s="42">
+      <c r="AT62" s="27">
         <v>47.28</v>
       </c>
-      <c r="AU62" s="43">
+      <c r="AU62" s="28">
         <v>50218.45</v>
       </c>
     </row>
-    <row r="63" spans="1:47" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="31">
+    <row r="63" spans="1:47" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
         <v>25</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="34">
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="20">
         <v>1189.6099999999999</v>
       </c>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="34">
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="20">
         <v>1189.6099999999999</v>
       </c>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="33"/>
-      <c r="U63" s="33"/>
-      <c r="V63" s="33"/>
-      <c r="W63" s="33"/>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="33"/>
-      <c r="Z63" s="33"/>
-      <c r="AA63" s="33"/>
-      <c r="AB63" s="33"/>
-      <c r="AC63" s="33"/>
-      <c r="AD63" s="33"/>
-      <c r="AE63" s="33"/>
-      <c r="AF63" s="33"/>
-      <c r="AG63" s="33"/>
-      <c r="AH63" s="33"/>
-      <c r="AI63" s="33"/>
-      <c r="AJ63" s="33"/>
-      <c r="AK63" s="33"/>
-      <c r="AL63" s="33"/>
-      <c r="AM63" s="33"/>
-      <c r="AN63" s="34">
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19"/>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19"/>
+      <c r="AE63" s="19"/>
+      <c r="AF63" s="19"/>
+      <c r="AG63" s="19"/>
+      <c r="AH63" s="19"/>
+      <c r="AI63" s="19"/>
+      <c r="AJ63" s="19"/>
+      <c r="AK63" s="19"/>
+      <c r="AL63" s="19"/>
+      <c r="AM63" s="19"/>
+      <c r="AN63" s="20">
         <v>1189.6099999999999</v>
       </c>
-      <c r="AO63" s="33"/>
-      <c r="AP63" s="33"/>
-      <c r="AQ63" s="33"/>
-      <c r="AR63" s="33"/>
-      <c r="AS63" s="35">
+      <c r="AO63" s="19"/>
+      <c r="AP63" s="19"/>
+      <c r="AQ63" s="19"/>
+      <c r="AR63" s="19"/>
+      <c r="AS63" s="21">
         <v>1189.6099999999999</v>
       </c>
-      <c r="AT63" s="33"/>
-      <c r="AU63" s="35">
+      <c r="AT63" s="19"/>
+      <c r="AU63" s="21">
         <v>1189.6099999999999</v>
       </c>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="37" t="s">
+      <c r="B64" s="38"/>
+      <c r="C64" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D64" s="38">
+      <c r="D64" s="23">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E64" s="38">
+      <c r="E64" s="23">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F64" s="39">
+      <c r="F64" s="24">
         <v>1189.6099999999999</v>
       </c>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="38">
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="23">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J64" s="38">
+      <c r="J64" s="23">
         <v>1.1200000000000001</v>
       </c>
-      <c r="K64" s="39">
+      <c r="K64" s="24">
         <v>1189.6099999999999</v>
       </c>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="40"/>
-      <c r="U64" s="40"/>
-      <c r="V64" s="40"/>
-      <c r="W64" s="40"/>
-      <c r="X64" s="40"/>
-      <c r="Y64" s="40"/>
-      <c r="Z64" s="40"/>
-      <c r="AA64" s="40"/>
-      <c r="AB64" s="40"/>
-      <c r="AC64" s="40"/>
-      <c r="AD64" s="40"/>
-      <c r="AE64" s="40"/>
-      <c r="AF64" s="40"/>
-      <c r="AG64" s="40"/>
-      <c r="AH64" s="40"/>
-      <c r="AI64" s="40"/>
-      <c r="AJ64" s="40"/>
-      <c r="AK64" s="40"/>
-      <c r="AL64" s="38">
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="25"/>
+      <c r="V64" s="25"/>
+      <c r="W64" s="25"/>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="25"/>
+      <c r="Z64" s="25"/>
+      <c r="AA64" s="25"/>
+      <c r="AB64" s="25"/>
+      <c r="AC64" s="25"/>
+      <c r="AD64" s="25"/>
+      <c r="AE64" s="25"/>
+      <c r="AF64" s="25"/>
+      <c r="AG64" s="25"/>
+      <c r="AH64" s="25"/>
+      <c r="AI64" s="25"/>
+      <c r="AJ64" s="25"/>
+      <c r="AK64" s="25"/>
+      <c r="AL64" s="23">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AM64" s="39">
+      <c r="AM64" s="24">
         <v>1062.1500000000001</v>
       </c>
-      <c r="AN64" s="39">
+      <c r="AN64" s="24">
         <v>1189.6099999999999</v>
       </c>
-      <c r="AO64" s="40"/>
-      <c r="AP64" s="41"/>
-      <c r="AQ64" s="40"/>
-      <c r="AR64" s="42">
+      <c r="AO64" s="25"/>
+      <c r="AP64" s="26"/>
+      <c r="AQ64" s="25"/>
+      <c r="AR64" s="27">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AS64" s="43">
+      <c r="AS64" s="28">
         <v>1189.6099999999999</v>
       </c>
-      <c r="AT64" s="42">
+      <c r="AT64" s="27">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AU64" s="43">
+      <c r="AU64" s="28">
         <v>1189.6099999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:47" ht="180" x14ac:dyDescent="0.25">
-      <c r="A65" s="31">
+    <row r="65" spans="1:47" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="17">
         <v>26</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="34">
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="20">
         <v>19218.169999999998</v>
       </c>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="34">
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="20">
         <v>19218.169999999998</v>
       </c>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="33"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="33"/>
-      <c r="U65" s="33"/>
-      <c r="V65" s="33"/>
-      <c r="W65" s="33"/>
-      <c r="X65" s="33"/>
-      <c r="Y65" s="33"/>
-      <c r="Z65" s="33"/>
-      <c r="AA65" s="33"/>
-      <c r="AB65" s="33"/>
-      <c r="AC65" s="33"/>
-      <c r="AD65" s="33"/>
-      <c r="AE65" s="33"/>
-      <c r="AF65" s="33"/>
-      <c r="AG65" s="33"/>
-      <c r="AH65" s="33"/>
-      <c r="AI65" s="33"/>
-      <c r="AJ65" s="33"/>
-      <c r="AK65" s="33"/>
-      <c r="AL65" s="33"/>
-      <c r="AM65" s="33"/>
-      <c r="AN65" s="34">
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="19"/>
+      <c r="X65" s="19"/>
+      <c r="Y65" s="19"/>
+      <c r="Z65" s="19"/>
+      <c r="AA65" s="19"/>
+      <c r="AB65" s="19"/>
+      <c r="AC65" s="19"/>
+      <c r="AD65" s="19"/>
+      <c r="AE65" s="19"/>
+      <c r="AF65" s="19"/>
+      <c r="AG65" s="19"/>
+      <c r="AH65" s="19"/>
+      <c r="AI65" s="19"/>
+      <c r="AJ65" s="19"/>
+      <c r="AK65" s="19"/>
+      <c r="AL65" s="19"/>
+      <c r="AM65" s="19"/>
+      <c r="AN65" s="20">
         <v>19218.169999999998</v>
       </c>
-      <c r="AO65" s="33"/>
-      <c r="AP65" s="33"/>
-      <c r="AQ65" s="33"/>
-      <c r="AR65" s="33"/>
-      <c r="AS65" s="35">
+      <c r="AO65" s="19"/>
+      <c r="AP65" s="19"/>
+      <c r="AQ65" s="19"/>
+      <c r="AR65" s="19"/>
+      <c r="AS65" s="21">
         <v>19218.169999999998</v>
       </c>
-      <c r="AT65" s="33"/>
-      <c r="AU65" s="35">
+      <c r="AT65" s="19"/>
+      <c r="AU65" s="21">
         <v>19218.169999999998</v>
       </c>
     </row>
     <row r="66" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="37" t="s">
+      <c r="B66" s="38"/>
+      <c r="C66" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D66" s="38">
+      <c r="D66" s="23">
         <v>0.08</v>
       </c>
-      <c r="E66" s="38">
+      <c r="E66" s="23">
         <v>0.08</v>
       </c>
-      <c r="F66" s="44">
+      <c r="F66" s="29">
         <v>99.47</v>
       </c>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="38">
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="23">
         <v>0.08</v>
       </c>
-      <c r="J66" s="38">
+      <c r="J66" s="23">
         <v>0.08</v>
       </c>
-      <c r="K66" s="44">
+      <c r="K66" s="29">
         <v>99.47</v>
       </c>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="40"/>
-      <c r="U66" s="40"/>
-      <c r="V66" s="40"/>
-      <c r="W66" s="40"/>
-      <c r="X66" s="40"/>
-      <c r="Y66" s="40"/>
-      <c r="Z66" s="40"/>
-      <c r="AA66" s="40"/>
-      <c r="AB66" s="40"/>
-      <c r="AC66" s="40"/>
-      <c r="AD66" s="40"/>
-      <c r="AE66" s="40"/>
-      <c r="AF66" s="40"/>
-      <c r="AG66" s="40"/>
-      <c r="AH66" s="40"/>
-      <c r="AI66" s="40"/>
-      <c r="AJ66" s="40"/>
-      <c r="AK66" s="40"/>
-      <c r="AL66" s="38">
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="25"/>
+      <c r="W66" s="25"/>
+      <c r="X66" s="25"/>
+      <c r="Y66" s="25"/>
+      <c r="Z66" s="25"/>
+      <c r="AA66" s="25"/>
+      <c r="AB66" s="25"/>
+      <c r="AC66" s="25"/>
+      <c r="AD66" s="25"/>
+      <c r="AE66" s="25"/>
+      <c r="AF66" s="25"/>
+      <c r="AG66" s="25"/>
+      <c r="AH66" s="25"/>
+      <c r="AI66" s="25"/>
+      <c r="AJ66" s="25"/>
+      <c r="AK66" s="25"/>
+      <c r="AL66" s="23">
         <v>0.08</v>
       </c>
-      <c r="AM66" s="39">
+      <c r="AM66" s="24">
         <v>1243.3800000000001</v>
       </c>
-      <c r="AN66" s="44">
+      <c r="AN66" s="29">
         <v>99.47</v>
       </c>
-      <c r="AO66" s="40"/>
-      <c r="AP66" s="41"/>
-      <c r="AQ66" s="40"/>
-      <c r="AR66" s="42">
+      <c r="AO66" s="25"/>
+      <c r="AP66" s="26"/>
+      <c r="AQ66" s="25"/>
+      <c r="AR66" s="27">
         <v>0.08</v>
       </c>
-      <c r="AS66" s="45">
+      <c r="AS66" s="30">
         <v>99.47</v>
       </c>
-      <c r="AT66" s="42">
+      <c r="AT66" s="27">
         <v>0.08</v>
       </c>
-      <c r="AU66" s="45">
+      <c r="AU66" s="30">
         <v>99.47</v>
       </c>
     </row>
     <row r="67" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="37" t="s">
+      <c r="B67" s="38"/>
+      <c r="C67" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D67" s="38">
+      <c r="D67" s="23">
         <v>18</v>
       </c>
-      <c r="E67" s="38">
+      <c r="E67" s="23">
         <v>18</v>
       </c>
-      <c r="F67" s="39">
+      <c r="F67" s="24">
         <v>19118.7</v>
       </c>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="38">
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="23">
         <v>18</v>
       </c>
-      <c r="J67" s="38">
+      <c r="J67" s="23">
         <v>18</v>
       </c>
-      <c r="K67" s="39">
+      <c r="K67" s="24">
         <v>19118.7</v>
       </c>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="40"/>
-      <c r="T67" s="40"/>
-      <c r="U67" s="40"/>
-      <c r="V67" s="40"/>
-      <c r="W67" s="40"/>
-      <c r="X67" s="40"/>
-      <c r="Y67" s="40"/>
-      <c r="Z67" s="40"/>
-      <c r="AA67" s="40"/>
-      <c r="AB67" s="40"/>
-      <c r="AC67" s="40"/>
-      <c r="AD67" s="40"/>
-      <c r="AE67" s="40"/>
-      <c r="AF67" s="40"/>
-      <c r="AG67" s="40"/>
-      <c r="AH67" s="40"/>
-      <c r="AI67" s="40"/>
-      <c r="AJ67" s="40"/>
-      <c r="AK67" s="40"/>
-      <c r="AL67" s="38">
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="25"/>
+      <c r="V67" s="25"/>
+      <c r="W67" s="25"/>
+      <c r="X67" s="25"/>
+      <c r="Y67" s="25"/>
+      <c r="Z67" s="25"/>
+      <c r="AA67" s="25"/>
+      <c r="AB67" s="25"/>
+      <c r="AC67" s="25"/>
+      <c r="AD67" s="25"/>
+      <c r="AE67" s="25"/>
+      <c r="AF67" s="25"/>
+      <c r="AG67" s="25"/>
+      <c r="AH67" s="25"/>
+      <c r="AI67" s="25"/>
+      <c r="AJ67" s="25"/>
+      <c r="AK67" s="25"/>
+      <c r="AL67" s="23">
         <v>18</v>
       </c>
-      <c r="AM67" s="39">
+      <c r="AM67" s="24">
         <v>1062.1500000000001</v>
       </c>
-      <c r="AN67" s="39">
+      <c r="AN67" s="24">
         <v>19118.7</v>
       </c>
-      <c r="AO67" s="40"/>
-      <c r="AP67" s="41"/>
-      <c r="AQ67" s="40"/>
-      <c r="AR67" s="42">
+      <c r="AO67" s="25"/>
+      <c r="AP67" s="26"/>
+      <c r="AQ67" s="25"/>
+      <c r="AR67" s="27">
         <v>18</v>
       </c>
-      <c r="AS67" s="43">
+      <c r="AS67" s="28">
         <v>19118.7</v>
       </c>
-      <c r="AT67" s="42">
+      <c r="AT67" s="27">
         <v>18</v>
       </c>
-      <c r="AU67" s="43">
+      <c r="AU67" s="28">
         <v>19118.7</v>
       </c>
     </row>
-    <row r="68" spans="1:47" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="31">
+    <row r="68" spans="1:47" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="17">
         <v>28</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="34">
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="20">
         <v>2040.03</v>
       </c>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="34">
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="20">
         <v>2040.03</v>
       </c>
-      <c r="L68" s="33"/>
-      <c r="M68" s="33"/>
-      <c r="N68" s="33"/>
-      <c r="O68" s="33"/>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="33"/>
-      <c r="R68" s="33"/>
-      <c r="S68" s="33"/>
-      <c r="T68" s="33"/>
-      <c r="U68" s="33"/>
-      <c r="V68" s="33"/>
-      <c r="W68" s="33"/>
-      <c r="X68" s="33"/>
-      <c r="Y68" s="33"/>
-      <c r="Z68" s="33"/>
-      <c r="AA68" s="33"/>
-      <c r="AB68" s="33"/>
-      <c r="AC68" s="33"/>
-      <c r="AD68" s="33"/>
-      <c r="AE68" s="33"/>
-      <c r="AF68" s="33"/>
-      <c r="AG68" s="33"/>
-      <c r="AH68" s="33"/>
-      <c r="AI68" s="33"/>
-      <c r="AJ68" s="33"/>
-      <c r="AK68" s="33"/>
-      <c r="AL68" s="33"/>
-      <c r="AM68" s="33"/>
-      <c r="AN68" s="34">
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="19"/>
+      <c r="Z68" s="19"/>
+      <c r="AA68" s="19"/>
+      <c r="AB68" s="19"/>
+      <c r="AC68" s="19"/>
+      <c r="AD68" s="19"/>
+      <c r="AE68" s="19"/>
+      <c r="AF68" s="19"/>
+      <c r="AG68" s="19"/>
+      <c r="AH68" s="19"/>
+      <c r="AI68" s="19"/>
+      <c r="AJ68" s="19"/>
+      <c r="AK68" s="19"/>
+      <c r="AL68" s="19"/>
+      <c r="AM68" s="19"/>
+      <c r="AN68" s="20">
         <v>2040.03</v>
       </c>
-      <c r="AO68" s="33"/>
-      <c r="AP68" s="33"/>
-      <c r="AQ68" s="33"/>
-      <c r="AR68" s="33"/>
-      <c r="AS68" s="35">
+      <c r="AO68" s="19"/>
+      <c r="AP68" s="19"/>
+      <c r="AQ68" s="19"/>
+      <c r="AR68" s="19"/>
+      <c r="AS68" s="21">
         <v>2040.03</v>
       </c>
-      <c r="AT68" s="33"/>
-      <c r="AU68" s="35">
+      <c r="AT68" s="19"/>
+      <c r="AU68" s="21">
         <v>2040.03</v>
       </c>
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="37" t="s">
+      <c r="B69" s="38"/>
+      <c r="C69" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="38">
+      <c r="D69" s="23">
         <v>0.53400000000000003</v>
       </c>
-      <c r="E69" s="38">
+      <c r="E69" s="23">
         <v>0.53400000000000003</v>
       </c>
-      <c r="F69" s="44">
+      <c r="F69" s="29">
         <v>661.74</v>
       </c>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="38">
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="23">
         <v>0.53400000000000003</v>
       </c>
-      <c r="J69" s="38">
+      <c r="J69" s="23">
         <v>0.53400000000000003</v>
       </c>
-      <c r="K69" s="44">
+      <c r="K69" s="29">
         <v>661.74</v>
       </c>
-      <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="40"/>
-      <c r="U69" s="40"/>
-      <c r="V69" s="40"/>
-      <c r="W69" s="40"/>
-      <c r="X69" s="40"/>
-      <c r="Y69" s="40"/>
-      <c r="Z69" s="40"/>
-      <c r="AA69" s="40"/>
-      <c r="AB69" s="40"/>
-      <c r="AC69" s="40"/>
-      <c r="AD69" s="40"/>
-      <c r="AE69" s="40"/>
-      <c r="AF69" s="40"/>
-      <c r="AG69" s="40"/>
-      <c r="AH69" s="40"/>
-      <c r="AI69" s="40"/>
-      <c r="AJ69" s="40"/>
-      <c r="AK69" s="40"/>
-      <c r="AL69" s="38">
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="25"/>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="25"/>
+      <c r="AB69" s="25"/>
+      <c r="AC69" s="25"/>
+      <c r="AD69" s="25"/>
+      <c r="AE69" s="25"/>
+      <c r="AF69" s="25"/>
+      <c r="AG69" s="25"/>
+      <c r="AH69" s="25"/>
+      <c r="AI69" s="25"/>
+      <c r="AJ69" s="25"/>
+      <c r="AK69" s="25"/>
+      <c r="AL69" s="23">
         <v>0.53400000000000003</v>
       </c>
-      <c r="AM69" s="39">
+      <c r="AM69" s="24">
         <v>1239.21</v>
       </c>
-      <c r="AN69" s="44">
+      <c r="AN69" s="29">
         <v>661.74</v>
       </c>
-      <c r="AO69" s="40"/>
-      <c r="AP69" s="41"/>
-      <c r="AQ69" s="40"/>
-      <c r="AR69" s="42">
+      <c r="AO69" s="25"/>
+      <c r="AP69" s="26"/>
+      <c r="AQ69" s="25"/>
+      <c r="AR69" s="27">
         <v>0.53400000000000003</v>
       </c>
-      <c r="AS69" s="45">
+      <c r="AS69" s="30">
         <v>661.74</v>
       </c>
-      <c r="AT69" s="42">
+      <c r="AT69" s="27">
         <v>0.53400000000000003</v>
       </c>
-      <c r="AU69" s="45">
+      <c r="AU69" s="30">
         <v>661.74</v>
       </c>
     </row>
     <row r="70" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="37" t="s">
+      <c r="B70" s="38"/>
+      <c r="C70" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D70" s="38">
+      <c r="D70" s="23">
         <v>1.2410000000000001</v>
       </c>
-      <c r="E70" s="38">
+      <c r="E70" s="23">
         <v>1.2410000000000001</v>
       </c>
-      <c r="F70" s="39">
+      <c r="F70" s="24">
         <v>1378.29</v>
       </c>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="38">
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="23">
         <v>1.2410000000000001</v>
       </c>
-      <c r="J70" s="38">
+      <c r="J70" s="23">
         <v>1.2410000000000001</v>
       </c>
-      <c r="K70" s="39">
+      <c r="K70" s="24">
         <v>1378.29</v>
       </c>
-      <c r="L70" s="40"/>
-      <c r="M70" s="40"/>
-      <c r="N70" s="40"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
-      <c r="T70" s="40"/>
-      <c r="U70" s="40"/>
-      <c r="V70" s="40"/>
-      <c r="W70" s="40"/>
-      <c r="X70" s="40"/>
-      <c r="Y70" s="40"/>
-      <c r="Z70" s="40"/>
-      <c r="AA70" s="40"/>
-      <c r="AB70" s="40"/>
-      <c r="AC70" s="40"/>
-      <c r="AD70" s="40"/>
-      <c r="AE70" s="40"/>
-      <c r="AF70" s="40"/>
-      <c r="AG70" s="40"/>
-      <c r="AH70" s="40"/>
-      <c r="AI70" s="40"/>
-      <c r="AJ70" s="40"/>
-      <c r="AK70" s="40"/>
-      <c r="AL70" s="38">
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="25"/>
+      <c r="W70" s="25"/>
+      <c r="X70" s="25"/>
+      <c r="Y70" s="25"/>
+      <c r="Z70" s="25"/>
+      <c r="AA70" s="25"/>
+      <c r="AB70" s="25"/>
+      <c r="AC70" s="25"/>
+      <c r="AD70" s="25"/>
+      <c r="AE70" s="25"/>
+      <c r="AF70" s="25"/>
+      <c r="AG70" s="25"/>
+      <c r="AH70" s="25"/>
+      <c r="AI70" s="25"/>
+      <c r="AJ70" s="25"/>
+      <c r="AK70" s="25"/>
+      <c r="AL70" s="23">
         <v>1.2410000000000001</v>
       </c>
-      <c r="AM70" s="39">
+      <c r="AM70" s="24">
         <v>1110.6300000000001</v>
       </c>
-      <c r="AN70" s="39">
+      <c r="AN70" s="24">
         <v>1378.29</v>
       </c>
-      <c r="AO70" s="40"/>
-      <c r="AP70" s="41"/>
-      <c r="AQ70" s="40"/>
-      <c r="AR70" s="42">
+      <c r="AO70" s="25"/>
+      <c r="AP70" s="26"/>
+      <c r="AQ70" s="25"/>
+      <c r="AR70" s="27">
         <v>1.2410000000000001</v>
       </c>
-      <c r="AS70" s="43">
+      <c r="AS70" s="28">
         <v>1378.29</v>
       </c>
-      <c r="AT70" s="42">
+      <c r="AT70" s="27">
         <v>1.2410000000000001</v>
       </c>
-      <c r="AU70" s="43">
+      <c r="AU70" s="28">
         <v>1378.29</v>
       </c>
     </row>
     <row r="71" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A71" s="48" t="s">
+      <c r="A71" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="50">
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="34">
         <v>794192.03</v>
       </c>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="50">
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="34">
         <v>794192.03</v>
       </c>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="49"/>
-      <c r="O71" s="49"/>
-      <c r="P71" s="50">
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="34">
         <v>100547.45</v>
       </c>
-      <c r="Q71" s="49"/>
-      <c r="R71" s="49"/>
-      <c r="S71" s="49"/>
-      <c r="T71" s="49"/>
-      <c r="U71" s="51">
+      <c r="Q71" s="33"/>
+      <c r="R71" s="33"/>
+      <c r="S71" s="33"/>
+      <c r="T71" s="33"/>
+      <c r="U71" s="35">
         <v>100547.45</v>
       </c>
-      <c r="V71" s="49"/>
-      <c r="W71" s="49"/>
-      <c r="X71" s="50">
+      <c r="V71" s="33"/>
+      <c r="W71" s="33"/>
+      <c r="X71" s="34">
         <v>77287.28</v>
       </c>
-      <c r="Y71" s="49"/>
-      <c r="Z71" s="49"/>
-      <c r="AA71" s="49"/>
-      <c r="AB71" s="49"/>
-      <c r="AC71" s="51">
+      <c r="Y71" s="33"/>
+      <c r="Z71" s="33"/>
+      <c r="AA71" s="33"/>
+      <c r="AB71" s="33"/>
+      <c r="AC71" s="35">
         <v>77287.28</v>
       </c>
-      <c r="AD71" s="49"/>
-      <c r="AE71" s="49"/>
-      <c r="AF71" s="50">
+      <c r="AD71" s="33"/>
+      <c r="AE71" s="33"/>
+      <c r="AF71" s="34">
         <v>429459.28</v>
       </c>
-      <c r="AG71" s="49"/>
-      <c r="AH71" s="49"/>
-      <c r="AI71" s="49"/>
-      <c r="AJ71" s="49"/>
-      <c r="AK71" s="51">
+      <c r="AG71" s="33"/>
+      <c r="AH71" s="33"/>
+      <c r="AI71" s="33"/>
+      <c r="AJ71" s="33"/>
+      <c r="AK71" s="35">
         <v>429459.28</v>
       </c>
-      <c r="AL71" s="49"/>
-      <c r="AM71" s="49"/>
-      <c r="AN71" s="50">
+      <c r="AL71" s="33"/>
+      <c r="AM71" s="33"/>
+      <c r="AN71" s="34">
         <v>186898.02</v>
       </c>
-      <c r="AO71" s="49"/>
-      <c r="AP71" s="49"/>
-      <c r="AQ71" s="49"/>
-      <c r="AR71" s="49"/>
-      <c r="AS71" s="51">
+      <c r="AO71" s="33"/>
+      <c r="AP71" s="33"/>
+      <c r="AQ71" s="33"/>
+      <c r="AR71" s="33"/>
+      <c r="AS71" s="35">
         <v>186898.02</v>
       </c>
-      <c r="AT71" s="49"/>
-      <c r="AU71" s="51">
+      <c r="AT71" s="33"/>
+      <c r="AU71" s="35">
         <v>794192.03</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="N8:U8"/>
+    <mergeCell ref="V8:AC8"/>
+    <mergeCell ref="AD8:AK8"/>
+    <mergeCell ref="AL8:AS8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:M8"/>
+    <mergeCell ref="N7:U7"/>
+    <mergeCell ref="V7:AC7"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AD7:AK7"/>
+    <mergeCell ref="AL7:AS7"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="AR9:AS9"/>
     <mergeCell ref="AT9:AU9"/>
@@ -8444,26 +8590,1102 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:P9"/>
     <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AD7:AK7"/>
-    <mergeCell ref="AL7:AS7"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="N8:U8"/>
-    <mergeCell ref="V8:AC8"/>
-    <mergeCell ref="AD8:AK8"/>
-    <mergeCell ref="AL8:AS8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:M8"/>
-    <mergeCell ref="N7:U7"/>
-    <mergeCell ref="V7:AC7"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="O1" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="R1" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" s="54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="55">
+        <v>1</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="56">
+        <v>3.81E-3</v>
+      </c>
+      <c r="M2" s="56">
+        <v>3.81E-3</v>
+      </c>
+      <c r="N2" s="55">
+        <v>0</v>
+      </c>
+      <c r="O2" s="55">
+        <v>0</v>
+      </c>
+      <c r="P2" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="54"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="55">
+        <v>2</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="56">
+        <v>5.0809999999999996E-3</v>
+      </c>
+      <c r="M3" s="56">
+        <v>5.0809999999999996E-3</v>
+      </c>
+      <c r="N3" s="55">
+        <v>0</v>
+      </c>
+      <c r="O3" s="55">
+        <v>0</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="54"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="55">
+        <v>3</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="56">
+        <v>8.4920000000000009</v>
+      </c>
+      <c r="M4" s="56">
+        <v>8.4920000000000009</v>
+      </c>
+      <c r="N4" s="55">
+        <v>0</v>
+      </c>
+      <c r="O4" s="55">
+        <v>0</v>
+      </c>
+      <c r="P4" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="S4" s="54"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="55">
+        <v>4</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="56">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M5" s="56">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N5" s="55">
+        <v>0</v>
+      </c>
+      <c r="O5" s="55">
+        <v>0</v>
+      </c>
+      <c r="P5" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="S5" s="54"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="55">
+        <v>5</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="56">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M6" s="56">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="N6" s="55">
+        <v>0</v>
+      </c>
+      <c r="O6" s="55">
+        <v>0</v>
+      </c>
+      <c r="P6" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L7" s="60">
+        <f>SUM(L2:L6)</f>
+        <v>8.8088910000000009</v>
+      </c>
+      <c r="M7" s="60">
+        <f>SUM(M2:M6)</f>
+        <v>8.8088910000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="N10" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="P10" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="R10" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="T10" s="57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="58">
+        <v>1</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="L11" s="59">
+        <v>3.81E-3</v>
+      </c>
+      <c r="M11" s="59">
+        <v>3.81E-3</v>
+      </c>
+      <c r="N11" s="58">
+        <v>0</v>
+      </c>
+      <c r="O11" s="58">
+        <v>0</v>
+      </c>
+      <c r="P11" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" s="57"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="58">
+        <v>2</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" s="59">
+        <v>5.0809999999999996E-3</v>
+      </c>
+      <c r="M12" s="59">
+        <v>5.0809999999999996E-3</v>
+      </c>
+      <c r="N12" s="58">
+        <v>0</v>
+      </c>
+      <c r="O12" s="58">
+        <v>0</v>
+      </c>
+      <c r="P12" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" s="57"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="58">
+        <v>3</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="L13" s="59">
+        <v>8.4920000000000009</v>
+      </c>
+      <c r="M13" s="59">
+        <v>8.4920000000000009</v>
+      </c>
+      <c r="N13" s="58">
+        <v>0</v>
+      </c>
+      <c r="O13" s="58">
+        <v>0</v>
+      </c>
+      <c r="P13" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="T13" s="57"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="58">
+        <v>4</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14" s="59">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="M14" s="59">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="N14" s="58">
+        <v>0</v>
+      </c>
+      <c r="O14" s="58">
+        <v>0</v>
+      </c>
+      <c r="P14" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="T14" s="57"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="58">
+        <v>5</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" s="59">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="M15" s="59">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="N15" s="58">
+        <v>0</v>
+      </c>
+      <c r="O15" s="58">
+        <v>0</v>
+      </c>
+      <c r="P15" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="T15" s="57"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="58">
+        <v>6</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="59">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="M16" s="59">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="N16" s="58">
+        <v>0</v>
+      </c>
+      <c r="O16" s="58">
+        <v>0</v>
+      </c>
+      <c r="P16" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="T16" s="57"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="58">
+        <v>7</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" s="59">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="M17" s="59">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="N17" s="58">
+        <v>0</v>
+      </c>
+      <c r="O17" s="58">
+        <v>0</v>
+      </c>
+      <c r="P17" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="T17" s="57"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="58">
+        <v>8</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" s="59">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="M18" s="59">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="N18" s="58">
+        <v>0</v>
+      </c>
+      <c r="O18" s="58">
+        <v>0</v>
+      </c>
+      <c r="P18" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="T18" s="57"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="58">
+        <v>9</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" s="59">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="M19" s="59">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="N19" s="58">
+        <v>0</v>
+      </c>
+      <c r="O19" s="58">
+        <v>0</v>
+      </c>
+      <c r="P19" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="T19" s="57"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="58">
+        <v>10</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="L20" s="59">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="M20" s="59">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="N20" s="58">
+        <v>0</v>
+      </c>
+      <c r="O20" s="58">
+        <v>0</v>
+      </c>
+      <c r="P20" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="T20" s="57"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="58">
+        <v>11</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" s="59">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="M21" s="59">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="N21" s="58">
+        <v>0</v>
+      </c>
+      <c r="O21" s="58">
+        <v>0</v>
+      </c>
+      <c r="P21" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="T21" s="57"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="58">
+        <v>12</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="H22" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" s="59">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="M22" s="59">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="N22" s="58">
+        <v>0</v>
+      </c>
+      <c r="O22" s="58">
+        <v>0</v>
+      </c>
+      <c r="P22" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="T22" s="57"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="58">
+        <v>13</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" s="59">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="M23" s="59">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="N23" s="58">
+        <v>0</v>
+      </c>
+      <c r="O23" s="58">
+        <v>0</v>
+      </c>
+      <c r="P23" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="T23" s="57"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K24" s="60"/>
+      <c r="L24" s="60">
+        <f>SUM(L11:L23)</f>
+        <v>8.8088909999999938</v>
+      </c>
+      <c r="M24" s="60">
+        <f>SUM(M11:M23)</f>
+        <v>8.8088909999999938</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DOCs/Контрольный пример.xlsx
+++ b/DOCs/Контрольный пример.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610" firstSheet="2" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="УГПР" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="206">
   <si>
     <t>Картинка</t>
   </si>
@@ -634,6 +634,21 @@
   </si>
   <si>
     <t>07.03.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8-1</t>
+  </si>
+  <si>
+    <t>Стоимость заказчика без НДС</t>
+  </si>
+  <si>
+    <t>НДС</t>
+  </si>
+  <si>
+    <t>Стоимость заказчика с НДС</t>
+  </si>
+  <si>
+    <t>эскалация</t>
   </si>
 </sst>
 </file>
@@ -865,7 +880,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -972,18 +987,25 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="8"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1001,6 +1023,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1020,25 +1045,21 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="8"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3266,7 +3287,7 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H4" sqref="H4:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3764,216 +3785,216 @@
       <c r="C7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="53">
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="57">
         <v>2018</v>
       </c>
-      <c r="J7" s="53">
+      <c r="J7" s="57">
         <v>2018</v>
       </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="41">
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="58">
         <v>2018</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41">
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58">
         <v>2018</v>
       </c>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41">
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58">
         <v>2018</v>
       </c>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41">
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="58"/>
+      <c r="AJ7" s="58"/>
+      <c r="AK7" s="58"/>
+      <c r="AL7" s="58">
         <v>2018</v>
       </c>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
+      <c r="AM7" s="58"/>
+      <c r="AN7" s="58"/>
+      <c r="AO7" s="58"/>
+      <c r="AP7" s="58"/>
+      <c r="AQ7" s="58"/>
+      <c r="AR7" s="58"/>
+      <c r="AS7" s="58"/>
       <c r="AT7" s="10"/>
       <c r="AU7" s="10"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="47" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47" t="s">
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47" t="s">
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="47"/>
-      <c r="AL8" s="47" t="s">
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="50"/>
+      <c r="AJ8" s="50"/>
+      <c r="AK8" s="50"/>
+      <c r="AL8" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="47"/>
-      <c r="AO8" s="47"/>
-      <c r="AP8" s="47"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47"/>
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="50"/>
+      <c r="AO8" s="50"/>
+      <c r="AP8" s="50"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
       <c r="AT8" s="10"/>
       <c r="AU8" s="10"/>
     </row>
     <row r="9" spans="1:47" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="40"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40" t="s">
+      <c r="K9" s="51"/>
+      <c r="L9" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40" t="s">
+      <c r="M9" s="51"/>
+      <c r="N9" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40" t="s">
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40" t="s">
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40" t="s">
+      <c r="U9" s="51"/>
+      <c r="V9" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40" t="s">
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40" t="s">
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40" t="s">
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40" t="s">
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40" t="s">
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40" t="s">
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="AM9" s="40"/>
-      <c r="AN9" s="40"/>
-      <c r="AO9" s="40" t="s">
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="AP9" s="40"/>
-      <c r="AQ9" s="40"/>
-      <c r="AR9" s="40" t="s">
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="51"/>
+      <c r="AR9" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="AS9" s="40"/>
-      <c r="AT9" s="40" t="s">
+      <c r="AS9" s="51"/>
+      <c r="AT9" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="AU9" s="40"/>
+      <c r="AU9" s="51"/>
     </row>
     <row r="10" spans="1:47" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9" t="s">
         <v>137</v>
@@ -4381,10 +4402,10 @@
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="22" t="s">
         <v>141</v>
       </c>
@@ -4460,10 +4481,10 @@
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="22" t="s">
         <v>141</v>
       </c>
@@ -4602,10 +4623,10 @@
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="22" t="s">
         <v>141</v>
       </c>
@@ -4744,10 +4765,10 @@
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="22" t="s">
         <v>141</v>
       </c>
@@ -4951,10 +4972,10 @@
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="38"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="22" t="s">
         <v>141</v>
       </c>
@@ -5030,10 +5051,10 @@
       </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="22" t="s">
         <v>144</v>
       </c>
@@ -5172,10 +5193,10 @@
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="38"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="22" t="s">
         <v>141</v>
       </c>
@@ -5251,10 +5272,10 @@
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="22" t="s">
         <v>141</v>
       </c>
@@ -5458,10 +5479,10 @@
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="22" t="s">
         <v>141</v>
       </c>
@@ -5600,10 +5621,10 @@
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="38"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="22" t="s">
         <v>141</v>
       </c>
@@ -5742,10 +5763,10 @@
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="38"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="22" t="s">
         <v>141</v>
       </c>
@@ -5821,10 +5842,10 @@
       </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="38"/>
+      <c r="B35" s="59"/>
       <c r="C35" s="22" t="s">
         <v>144</v>
       </c>
@@ -5967,10 +5988,10 @@
       </c>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="38"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="22" t="s">
         <v>141</v>
       </c>
@@ -6119,10 +6140,10 @@
       </c>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="38"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="22" t="s">
         <v>141</v>
       </c>
@@ -6261,10 +6282,10 @@
       </c>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="22" t="s">
         <v>141</v>
       </c>
@@ -6403,10 +6424,10 @@
       </c>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="38"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="22" t="s">
         <v>141</v>
       </c>
@@ -6482,10 +6503,10 @@
       </c>
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="38"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="22" t="s">
         <v>144</v>
       </c>
@@ -6689,10 +6710,10 @@
       </c>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="38"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="22" t="s">
         <v>141</v>
       </c>
@@ -6768,10 +6789,10 @@
       </c>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="38"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="22" t="s">
         <v>144</v>
       </c>
@@ -6910,10 +6931,10 @@
       </c>
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="38"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="22" t="s">
         <v>144</v>
       </c>
@@ -7052,10 +7073,10 @@
       </c>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="59"/>
       <c r="C52" s="22" t="s">
         <v>141</v>
       </c>
@@ -7131,10 +7152,10 @@
       </c>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="22" t="s">
         <v>144</v>
       </c>
@@ -7273,10 +7294,10 @@
       </c>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="38"/>
+      <c r="B55" s="59"/>
       <c r="C55" s="22" t="s">
         <v>141</v>
       </c>
@@ -7352,10 +7373,10 @@
       </c>
     </row>
     <row r="56" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="B56" s="38"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="22" t="s">
         <v>144</v>
       </c>
@@ -7498,10 +7519,10 @@
       </c>
     </row>
     <row r="58" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="38"/>
+      <c r="B58" s="59"/>
       <c r="C58" s="22" t="s">
         <v>141</v>
       </c>
@@ -7587,10 +7608,10 @@
       </c>
     </row>
     <row r="59" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="38"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="22" t="s">
         <v>144</v>
       </c>
@@ -7739,10 +7760,10 @@
       </c>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="38"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="22" t="s">
         <v>141</v>
       </c>
@@ -7818,10 +7839,10 @@
       </c>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="38"/>
+      <c r="B62" s="59"/>
       <c r="C62" s="22" t="s">
         <v>144</v>
       </c>
@@ -7960,10 +7981,10 @@
       </c>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A64" s="38" t="s">
+      <c r="A64" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="B64" s="38"/>
+      <c r="B64" s="59"/>
       <c r="C64" s="22" t="s">
         <v>144</v>
       </c>
@@ -8102,10 +8123,10 @@
       </c>
     </row>
     <row r="66" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A66" s="38" t="s">
+      <c r="A66" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B66" s="38"/>
+      <c r="B66" s="59"/>
       <c r="C66" s="22" t="s">
         <v>141</v>
       </c>
@@ -8181,10 +8202,10 @@
       </c>
     </row>
     <row r="67" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="B67" s="38"/>
+      <c r="B67" s="59"/>
       <c r="C67" s="22" t="s">
         <v>144</v>
       </c>
@@ -8323,10 +8344,10 @@
       </c>
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="38"/>
+      <c r="B69" s="59"/>
       <c r="C69" s="22" t="s">
         <v>141</v>
       </c>
@@ -8402,10 +8423,10 @@
       </c>
     </row>
     <row r="70" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="38"/>
+      <c r="B70" s="59"/>
       <c r="C70" s="22" t="s">
         <v>144</v>
       </c>
@@ -8481,11 +8502,11 @@
       </c>
     </row>
     <row r="71" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A71" s="39" t="s">
+      <c r="A71" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
       <c r="F71" s="34">
@@ -8555,6 +8576,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AN9"/>
+    <mergeCell ref="AO9:AQ9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AD7:AK7"/>
+    <mergeCell ref="AL7:AS7"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A8:B10"/>
     <mergeCell ref="N8:U8"/>
     <mergeCell ref="V8:AC8"/>
@@ -8571,54 +8640,6 @@
     <mergeCell ref="V7:AC7"/>
     <mergeCell ref="T9:U9"/>
     <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AD7:AK7"/>
-    <mergeCell ref="AL7:AS7"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AN9"/>
-    <mergeCell ref="AO9:AQ9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8635,1040 +8656,1040 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="38" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="39">
         <v>1</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="56">
+      <c r="L2" s="40">
         <v>3.81E-3</v>
       </c>
-      <c r="M2" s="56">
+      <c r="M2" s="40">
         <v>3.81E-3</v>
       </c>
-      <c r="N2" s="55">
-        <v>0</v>
-      </c>
-      <c r="O2" s="55">
-        <v>0</v>
-      </c>
-      <c r="P2" s="54" t="s">
+      <c r="N2" s="39">
+        <v>0</v>
+      </c>
+      <c r="O2" s="39">
+        <v>0</v>
+      </c>
+      <c r="P2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54" t="s">
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="54"/>
+      <c r="S2" s="38"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="39">
         <v>2</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="40">
         <v>5.0809999999999996E-3</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="40">
         <v>5.0809999999999996E-3</v>
       </c>
-      <c r="N3" s="55">
-        <v>0</v>
-      </c>
-      <c r="O3" s="55">
-        <v>0</v>
-      </c>
-      <c r="P3" s="54" t="s">
+      <c r="N3" s="39">
+        <v>0</v>
+      </c>
+      <c r="O3" s="39">
+        <v>0</v>
+      </c>
+      <c r="P3" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54" t="s">
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="54"/>
+      <c r="S3" s="38"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="39">
         <v>3</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="56">
+      <c r="L4" s="40">
         <v>8.4920000000000009</v>
       </c>
-      <c r="M4" s="56">
+      <c r="M4" s="40">
         <v>8.4920000000000009</v>
       </c>
-      <c r="N4" s="55">
-        <v>0</v>
-      </c>
-      <c r="O4" s="55">
-        <v>0</v>
-      </c>
-      <c r="P4" s="54" t="s">
+      <c r="N4" s="39">
+        <v>0</v>
+      </c>
+      <c r="O4" s="39">
+        <v>0</v>
+      </c>
+      <c r="P4" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54" t="s">
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="S4" s="54"/>
+      <c r="S4" s="38"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="39">
         <v>4</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54" t="s">
+      <c r="I5" s="38"/>
+      <c r="J5" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="56">
+      <c r="L5" s="40">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M5" s="56">
+      <c r="M5" s="40">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N5" s="55">
-        <v>0</v>
-      </c>
-      <c r="O5" s="55">
-        <v>0</v>
-      </c>
-      <c r="P5" s="54" t="s">
+      <c r="N5" s="39">
+        <v>0</v>
+      </c>
+      <c r="O5" s="39">
+        <v>0</v>
+      </c>
+      <c r="P5" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54" t="s">
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="S5" s="54"/>
+      <c r="S5" s="38"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="39">
         <v>5</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54" t="s">
+      <c r="I6" s="38"/>
+      <c r="J6" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="56">
+      <c r="L6" s="40">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="M6" s="56">
+      <c r="M6" s="40">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="N6" s="55">
-        <v>0</v>
-      </c>
-      <c r="O6" s="55">
-        <v>0</v>
-      </c>
-      <c r="P6" s="54" t="s">
+      <c r="N6" s="39">
+        <v>0</v>
+      </c>
+      <c r="O6" s="39">
+        <v>0</v>
+      </c>
+      <c r="P6" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L7" s="60">
+      <c r="L7" s="44">
         <f>SUM(L2:L6)</f>
         <v>8.8088910000000009</v>
       </c>
-      <c r="M7" s="60">
+      <c r="M7" s="44">
         <f>SUM(M2:M6)</f>
         <v>8.8088910000000009</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="M10" s="57" t="s">
+      <c r="M10" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="N10" s="57" t="s">
+      <c r="N10" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="O10" s="57" t="s">
+      <c r="O10" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="P10" s="57" t="s">
+      <c r="P10" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="Q10" s="57" t="s">
+      <c r="Q10" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="R10" s="57" t="s">
+      <c r="R10" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="T10" s="57" t="s">
+      <c r="T10" s="41" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="42">
         <v>1</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57" t="s">
+      <c r="I11" s="41"/>
+      <c r="J11" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="57" t="s">
+      <c r="K11" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="L11" s="59">
+      <c r="L11" s="43">
         <v>3.81E-3</v>
       </c>
-      <c r="M11" s="59">
+      <c r="M11" s="43">
         <v>3.81E-3</v>
       </c>
-      <c r="N11" s="58">
-        <v>0</v>
-      </c>
-      <c r="O11" s="58">
-        <v>0</v>
-      </c>
-      <c r="P11" s="57" t="s">
+      <c r="N11" s="42">
+        <v>0</v>
+      </c>
+      <c r="O11" s="42">
+        <v>0</v>
+      </c>
+      <c r="P11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57" t="s">
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="T11" s="57"/>
+      <c r="T11" s="41"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="42">
         <v>2</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57" t="s">
+      <c r="I12" s="41"/>
+      <c r="J12" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="43">
         <v>5.0809999999999996E-3</v>
       </c>
-      <c r="M12" s="59">
+      <c r="M12" s="43">
         <v>5.0809999999999996E-3</v>
       </c>
-      <c r="N12" s="58">
-        <v>0</v>
-      </c>
-      <c r="O12" s="58">
-        <v>0</v>
-      </c>
-      <c r="P12" s="57" t="s">
+      <c r="N12" s="42">
+        <v>0</v>
+      </c>
+      <c r="O12" s="42">
+        <v>0</v>
+      </c>
+      <c r="P12" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57" t="s">
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="T12" s="57"/>
+      <c r="T12" s="41"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="42">
         <v>3</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57" t="s">
+      <c r="I13" s="41"/>
+      <c r="J13" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="57" t="s">
+      <c r="K13" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="L13" s="59">
+      <c r="L13" s="43">
         <v>8.4920000000000009</v>
       </c>
-      <c r="M13" s="59">
+      <c r="M13" s="43">
         <v>8.4920000000000009</v>
       </c>
-      <c r="N13" s="58">
-        <v>0</v>
-      </c>
-      <c r="O13" s="58">
-        <v>0</v>
-      </c>
-      <c r="P13" s="57" t="s">
+      <c r="N13" s="42">
+        <v>0</v>
+      </c>
+      <c r="O13" s="42">
+        <v>0</v>
+      </c>
+      <c r="P13" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57" t="s">
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="T13" s="57"/>
+      <c r="T13" s="41"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="42">
         <v>4</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57" t="s">
+      <c r="I14" s="41"/>
+      <c r="J14" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="L14" s="59">
+      <c r="L14" s="43">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="M14" s="59">
+      <c r="M14" s="43">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="N14" s="58">
-        <v>0</v>
-      </c>
-      <c r="O14" s="58">
-        <v>0</v>
-      </c>
-      <c r="P14" s="57" t="s">
+      <c r="N14" s="42">
+        <v>0</v>
+      </c>
+      <c r="O14" s="42">
+        <v>0</v>
+      </c>
+      <c r="P14" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57" t="s">
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="T14" s="57"/>
+      <c r="T14" s="41"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="42">
         <v>5</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57" t="s">
+      <c r="I15" s="41"/>
+      <c r="J15" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="57" t="s">
+      <c r="K15" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="43">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="M15" s="59">
+      <c r="M15" s="43">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="N15" s="58">
-        <v>0</v>
-      </c>
-      <c r="O15" s="58">
-        <v>0</v>
-      </c>
-      <c r="P15" s="57" t="s">
+      <c r="N15" s="42">
+        <v>0</v>
+      </c>
+      <c r="O15" s="42">
+        <v>0</v>
+      </c>
+      <c r="P15" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57" t="s">
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="T15" s="57"/>
+      <c r="T15" s="41"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="42">
         <v>6</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57" t="s">
+      <c r="I16" s="41"/>
+      <c r="J16" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="57" t="s">
+      <c r="K16" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="43">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="M16" s="59">
+      <c r="M16" s="43">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="N16" s="58">
-        <v>0</v>
-      </c>
-      <c r="O16" s="58">
-        <v>0</v>
-      </c>
-      <c r="P16" s="57" t="s">
+      <c r="N16" s="42">
+        <v>0</v>
+      </c>
+      <c r="O16" s="42">
+        <v>0</v>
+      </c>
+      <c r="P16" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57" t="s">
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="T16" s="57"/>
+      <c r="T16" s="41"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="42">
         <v>7</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57" t="s">
+      <c r="I17" s="41"/>
+      <c r="J17" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="L17" s="59">
+      <c r="L17" s="43">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="M17" s="59">
+      <c r="M17" s="43">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="N17" s="58">
-        <v>0</v>
-      </c>
-      <c r="O17" s="58">
-        <v>0</v>
-      </c>
-      <c r="P17" s="57" t="s">
+      <c r="N17" s="42">
+        <v>0</v>
+      </c>
+      <c r="O17" s="42">
+        <v>0</v>
+      </c>
+      <c r="P17" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57" t="s">
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="T17" s="57"/>
+      <c r="T17" s="41"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="42">
         <v>8</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57" t="s">
+      <c r="I18" s="41"/>
+      <c r="J18" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="57" t="s">
+      <c r="K18" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="L18" s="59">
+      <c r="L18" s="43">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="M18" s="59">
+      <c r="M18" s="43">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="N18" s="58">
-        <v>0</v>
-      </c>
-      <c r="O18" s="58">
-        <v>0</v>
-      </c>
-      <c r="P18" s="57" t="s">
+      <c r="N18" s="42">
+        <v>0</v>
+      </c>
+      <c r="O18" s="42">
+        <v>0</v>
+      </c>
+      <c r="P18" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57" t="s">
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="T18" s="57"/>
+      <c r="T18" s="41"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="58">
+      <c r="C19" s="42">
         <v>9</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="H19" s="57" t="s">
+      <c r="H19" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57" t="s">
+      <c r="I19" s="41"/>
+      <c r="J19" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="K19" s="57" t="s">
+      <c r="K19" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="L19" s="59">
+      <c r="L19" s="43">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="M19" s="59">
+      <c r="M19" s="43">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="N19" s="58">
-        <v>0</v>
-      </c>
-      <c r="O19" s="58">
-        <v>0</v>
-      </c>
-      <c r="P19" s="57" t="s">
+      <c r="N19" s="42">
+        <v>0</v>
+      </c>
+      <c r="O19" s="42">
+        <v>0</v>
+      </c>
+      <c r="P19" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="T19" s="57"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="T19" s="41"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="42">
         <v>10</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="H20" s="57" t="s">
+      <c r="H20" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57" t="s">
+      <c r="I20" s="41"/>
+      <c r="J20" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="57" t="s">
+      <c r="K20" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="L20" s="59">
+      <c r="L20" s="43">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="M20" s="59">
+      <c r="M20" s="43">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="N20" s="58">
-        <v>0</v>
-      </c>
-      <c r="O20" s="58">
-        <v>0</v>
-      </c>
-      <c r="P20" s="57" t="s">
+      <c r="N20" s="42">
+        <v>0</v>
+      </c>
+      <c r="O20" s="42">
+        <v>0</v>
+      </c>
+      <c r="P20" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="T20" s="57"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="T20" s="41"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="42">
         <v>11</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57" t="s">
+      <c r="I21" s="41"/>
+      <c r="J21" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="L21" s="59">
+      <c r="L21" s="43">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="M21" s="59">
+      <c r="M21" s="43">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="N21" s="58">
-        <v>0</v>
-      </c>
-      <c r="O21" s="58">
-        <v>0</v>
-      </c>
-      <c r="P21" s="57" t="s">
+      <c r="N21" s="42">
+        <v>0</v>
+      </c>
+      <c r="O21" s="42">
+        <v>0</v>
+      </c>
+      <c r="P21" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="T21" s="57"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="T21" s="41"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C22" s="58">
+      <c r="C22" s="42">
         <v>12</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="G22" s="57" t="s">
+      <c r="G22" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57" t="s">
+      <c r="I22" s="41"/>
+      <c r="J22" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="57" t="s">
+      <c r="K22" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="L22" s="59">
+      <c r="L22" s="43">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="M22" s="59">
+      <c r="M22" s="43">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="N22" s="58">
-        <v>0</v>
-      </c>
-      <c r="O22" s="58">
-        <v>0</v>
-      </c>
-      <c r="P22" s="57" t="s">
+      <c r="N22" s="42">
+        <v>0</v>
+      </c>
+      <c r="O22" s="42">
+        <v>0</v>
+      </c>
+      <c r="P22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="T22" s="57"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="T22" s="41"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23" s="42">
         <v>13</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57" t="s">
+      <c r="I23" s="41"/>
+      <c r="J23" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="K23" s="57" t="s">
+      <c r="K23" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="L23" s="59">
+      <c r="L23" s="43">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="M23" s="59">
+      <c r="M23" s="43">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="N23" s="58">
-        <v>0</v>
-      </c>
-      <c r="O23" s="58">
-        <v>0</v>
-      </c>
-      <c r="P23" s="57" t="s">
+      <c r="N23" s="42">
+        <v>0</v>
+      </c>
+      <c r="O23" s="42">
+        <v>0</v>
+      </c>
+      <c r="P23" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="T23" s="57"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="T23" s="41"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K24" s="60"/>
-      <c r="L24" s="60">
+      <c r="K24" s="44"/>
+      <c r="L24" s="44">
         <f>SUM(L11:L23)</f>
         <v>8.8088909999999938</v>
       </c>
-      <c r="M24" s="60">
+      <c r="M24" s="44">
         <f>SUM(M11:M23)</f>
         <v>8.8088909999999938</v>
       </c>
@@ -9680,12 +9701,102 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3">
+        <v>8307169.3799999999</v>
+      </c>
+      <c r="F3">
+        <v>8308828.6699999999</v>
+      </c>
+      <c r="G3">
+        <v>997059.43</v>
+      </c>
+      <c r="H3">
+        <v>9305888.0999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="62">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4">
+        <v>50000</v>
+      </c>
+      <c r="F4">
+        <v>50000</v>
+      </c>
+      <c r="G4">
+        <v>6000</v>
+      </c>
+      <c r="H4">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" ref="D7:G7" si="0">SUM(D3:D6)</f>
+        <v>8357169.3799999999</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>8358828.6699999999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1003059.43</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H3:H6)</f>
+        <v>9361888.0999999996</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>